--- a/data/AItest/AI.xlsx
+++ b/data/AItest/AI.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>linear_regression.py</t>
+          <t>solution.py</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>import torch
+          <t xml:space="preserve">
 import torch.nn as nn
 class LinearRegression(nn.Module):
     def __init__(self, input_size, output_size):
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">import torch
+          <t xml:space="preserve">
 import torch.nn as nn
 class LinearRegression(nn.Module):
     def __init__(self, input_size, output_size):
@@ -509,51 +509,51 @@
     def forward(self, x):
         """
         输入:
-        - x: 一个形状为(batch_size, input_size)的PyTorch张量。
+        - x: 一个形状为(batch_size, input_size)的PyTorch张量。1111
         输出:
         - out: 一个形状为(batch_size, output_size)的PyTorch张量，表示线性回归模型的输出。
         """
         out = self.linear(x)
-        return out
-</t>
+        return out</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">import torch
+          <t>import torch
 import torch.nn as nn
 import numpy as np
-from linear_regression import LinearRegression
-# 定义模型
-input_dim = 1  # 输入的维度
-output_dim = 1  # 输出的维度
-model = LinearRegression(input_dim, output_dim)
-# 定义损失函数和优化器
-criterion = nn.MSELoss()
-optimizer = torch.optim.SGD(model.parameters(), lr=0.01)
-# 训练模型
-epochs = 100
-# 数据集
-np.random.seed(0)
-x = np.random.rand(10, 1)
-y = 2 * x + 3 + np.random.randn(10, 1)
-# 将numpy数组转换为PyTorch Tensor
-x = torch.from_numpy(x).float()
-y = torch.from_numpy(y).float()
-for epoch in range(epochs):
-    # 前向传播
-    outputs = model(x)
-    loss = criterion(outputs, y)
-    # 反向传播和优化
-    optimizer.zero_grad()
-    loss.backward()
-    optimizer.step()
-    if (epoch+1) % 10 == 0:
-        print(f'Epoch {epoch+1}/{epochs}, Loss: {loss.item()}')
-print("Final Loss:",loss.item())
-# 在训练循环结束后
-assert loss.item() &lt; 2, "Loss is not less than 2"
-</t>
+from solution import LinearRegression
+def main():
+    # 定义模型
+    input_dim = 1  # 输入的维度
+    output_dim = 1  # 输出的维度
+    model = LinearRegression(input_dim, output_dim)
+    # 定义损失函数和优化器
+    criterion = nn.MSELoss()
+    optimizer = torch.optim.SGD(model.parameters(), lr=0.01)
+    # 训练模型
+    epochs = 100
+    # 数据集
+    np.random.seed(0)
+    x = np.random.rand(10, 1)
+    y = 2 * x + 3 + np.random.randn(10, 1)
+    # 将numpy数组转换为PyTorch Tensor
+    x = torch.from_numpy(x).float()
+    y = torch.from_numpy(y).float()
+    for epoch in range(epochs):
+        # 前向传播
+        outputs = model(x)
+        loss = criterion(outputs, y)
+        # 反向传播和优化
+        optimizer.zero_grad()
+        loss.backward()
+        optimizer.step()
+        if (epoch+1) % 10 == 0:
+            print(f'Epoch {epoch+1}/{epochs}, Loss: {loss.item()}')
+    print("Final Loss:",loss.item())
+    # 在训练循环结束后
+    assert loss.item() &lt; 2, "Loss is not less than 2"
+    return 1</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>image_classifier.py</t>
+          <t>solution.py</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -643,36 +643,38 @@
 import torch.nn as nn
 import torchvision
 import torchvision.transforms as transforms
-from image_classifier import ImageClassifier
-# 定义超参数
-input_size = 3  # 输入的维度（对于彩色图像，通常是3）
-num_classes = 10  # 输出的维度（对于CIFAR-10数据集，有10个类别）
-num_epochs = 3  # 训练的轮数
-batch_size = 100  # 每个批次的样本数量
-learning_rate = 0.001  # 学习率
-# 加载CIFAR-10数据集
-transform = transforms.Compose([transforms.ToTensor()])
-train_dataset = torchvision.datasets.CIFAR10(root='./data/AItest/data', train=True, download=True, transform=transform)
-train_loader = torch.utils.data.DataLoader(train_dataset, batch_size=batch_size, shuffle=True)
-# 定义模型
-model = ImageClassifier(input_size, num_classes)
-# 定义损失函数和优化器
-criterion = nn.CrossEntropyLoss()
-optimizer = torch.optim.Adam(model.parameters(), lr=learning_rate)
-# 训练模型
-for epoch in range(num_epochs):
-    for i, (images, labels) in enumerate(train_loader):
-        # 前向传播
-        outputs = model(images)
-        loss = criterion(outputs, labels)
-        # 反向传播和优化
-        optimizer.zero_grad()
-        loss.backward()
-        optimizer.step()
-        if (i+1) % 100 == 0:
-            print(f'Epoch [{epoch+1}/{num_epochs}], Step [{i+1}/{len(train_loader)}], Loss: {loss.item()}')
-print("最后的Loss:",loss.item())
-assert loss.item() &lt; 2, "Loss is not less than 2"</t>
+from solution import ImageClassifier
+def main():
+    # 定义超参数
+    input_size = 3  # 输入的维度（对于彩色图像，通常是3）
+    num_classes = 10  # 输出的维度（对于CIFAR-10数据集，有10个类别）
+    num_epochs = 3  # 训练的轮数
+    batch_size = 100  # 每个批次的样本数量
+    learning_rate = 0.001  # 学习率
+    # 加载CIFAR-10数据集
+    transform = transforms.Compose([transforms.ToTensor()])
+    train_dataset = torchvision.datasets.CIFAR10(root='./data/AItest/data', train=True, download=True, transform=transform)
+    train_loader = torch.utils.data.DataLoader(train_dataset, batch_size=batch_size, shuffle=True)
+    # 定义模型
+    model = ImageClassifier(input_size, num_classes)
+    # 定义损失函数和优化器
+    criterion = nn.CrossEntropyLoss()
+    optimizer = torch.optim.Adam(model.parameters(), lr=learning_rate)
+    # 训练模型
+    for epoch in range(num_epochs):
+        for i, (images, labels) in enumerate(train_loader):
+            # 前向传播
+            outputs = model(images)
+            loss = criterion(outputs, labels)
+            # 反向传播和优化
+            optimizer.zero_grad()
+            loss.backward()
+            optimizer.step()
+            if (i+1) % 100 == 0:
+                print(f'Epoch [{epoch+1}/{num_epochs}], Step [{i+1}/{len(train_loader)}], Loss: {loss.item()}')
+    print("最后的Loss:",loss.item())
+    assert loss.item() &lt; 2, "Loss is not less than 2"
+    return 1</t>
         </is>
       </c>
     </row>

--- a/data/AItest/AI.xlsx
+++ b/data/AItest/AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,9661 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def has_close_elements(numbers: List[float], threshold: float) -&gt; bool:
+    """ Check if in given list of numbers, are any two numbers closer to each other than
+    given threshold.
+    &gt;&gt;&gt; has_close_elements([1.0, 2.0, 3.0], 0.5)
+    False
+    &gt;&gt;&gt; has_close_elements([1.0, 2.8, 3.0, 4.0, 5.0, 2.0], 0.3)
+    True
+    """
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def has_close_elements(numbers: List[float], threshold: float) -&gt; bool:
+    for idx, elem in enumerate(numbers):
+        for idx2, elem2 in enumerate(numbers):
+            if idx != idx2:
+                distance = abs(elem - elem2)
+                if distance &lt; threshold:
+                    return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>from solution import has_close_elements as candidate 
+def main():
+    assert candidate([1.0, 2.0, 3.9, 4.0, 5.0, 2.2], 0.3) == True
+    assert candidate([1.0, 2.0, 3.9, 4.0, 5.0, 2.2], 0.05) == False
+    assert candidate([1.0, 2.0, 5.9, 4.0, 5.0], 0.95) == True
+    assert candidate([1.0, 2.0, 5.9, 4.0, 5.0], 0.8) == False
+    assert candidate([1.0, 2.0, 3.0, 4.0, 5.0, 2.0], 0.1) == True
+    assert candidate([1.1, 2.2, 3.1, 4.1, 5.1], 1.0) == True
+    assert candidate([1.1, 2.2, 3.1, 4.1, 5.1], 0.5) == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def separate_paren_groups(paren_string: str) -&gt; List[str]:
+    """ Input to this function is a string containing multiple groups of nested parentheses. Your goal is to
+    separate those group into separate strings and return the list of those.
+    Separate groups are balanced (each open brace is properly closed) and not nested within each other
+    Ignore any spaces in the input string.
+    &gt;&gt;&gt; separate_paren_groups('( ) (( )) (( )( ))')
+    ['()', '(())', '(()())']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def separate_paren_groups(paren_string: str) -&gt; List[str]:
+    result = []
+    current_string = []
+    current_depth = 0
+    for c in paren_string:
+        if c == '(':
+            current_depth += 1
+            current_string.append(c)
+        elif c == ')':
+            current_depth -= 1
+            current_string.append(c)
+            if current_depth == 0:
+                result.append(''.join(current_string))
+                current_string.clear()
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>from solution import separate_paren_groups as candidate 
+def main():
+    assert candidate('(()()) ((())) () ((())()())') == [
+        '(()())', '((()))', '()', '((())()())'
+    ]
+    assert candidate('() (()) ((())) (((())))') == [
+        '()', '(())', '((()))', '(((())))'
+    ]
+    assert candidate('(()(())((())))') == [
+        '(()(())((())))'
+    ]
+    assert candidate('( ) (( )) (( )( ))') == ['()', '(())', '(()())']
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def truncate_number(number: float) -&gt; float:
+    """ Given a positive floating point number, it can be decomposed into
+    and integer part (largest integer smaller than given number) and decimals
+    (leftover part always smaller than 1).
+    Return the decimal part of the number.
+    &gt;&gt;&gt; truncate_number(3.5)
+    0.5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def truncate_number(number: float) -&gt; float:
+    return number % 1.0
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>from solution import truncate_number as candidate 
+def main():
+    assert candidate(3.5) == 0.5
+    assert abs(candidate(1.33) - 0.33) &lt; 1e-6
+    assert abs(candidate(123.456) - 0.456) &lt; 1e-6
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def below_zero(operations: List[int]) -&gt; bool:
+    """ You're given a list of deposit and withdrawal operations on a bank account that starts with
+    zero balance. Your task is to detect if at any point the balance of account fallls below zero, and
+    at that point function should return True. Otherwise it should return False.
+    &gt;&gt;&gt; below_zero([1, 2, 3])
+    False
+    &gt;&gt;&gt; below_zero([1, 2, -4, 5])
+    True
+    """
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def below_zero(operations: List[int]) -&gt; bool:
+    balance = 0
+    for op in operations:
+        balance += op
+        if balance &lt; 0:
+            return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>from solution import below_zero as candidate 
+def main():
+    assert candidate([]) == False
+    assert candidate([1, 2, -3, 1, 2, -3]) == False
+    assert candidate([1, 2, -4, 5, 6]) == True
+    assert candidate([1, -1, 2, -2, 5, -5, 4, -4]) == False
+    assert candidate([1, -1, 2, -2, 5, -5, 4, -5]) == True
+    assert candidate([1, -2, 2, -2, 5, -5, 4, -4]) == True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def mean_absolute_deviation(numbers: List[float]) -&gt; float:
+    """ For a given list of input numbers, calculate Mean Absolute Deviation
+    around the mean of this dataset.
+    Mean Absolute Deviation is the average absolute difference between each
+    element and a centerpoint (mean in this case):
+    MAD = average | x - x_mean |
+    &gt;&gt;&gt; mean_absolute_deviation([1.0, 2.0, 3.0, 4.0])
+    1.0
+    """
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def mean_absolute_deviation(numbers: List[float]) -&gt; float:
+    mean = sum(numbers) / len(numbers)
+    return sum(abs(x - mean) for x in numbers) / len(numbers)
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>from solution import mean_absolute_deviation as candidate 
+def main():
+    assert abs(candidate([1.0, 2.0, 3.0]) - 2.0/3.0) &lt; 1e-6
+    assert abs(candidate([1.0, 2.0, 3.0, 4.0]) - 1.0) &lt; 1e-6
+    assert abs(candidate([1.0, 2.0, 3.0, 4.0, 5.0]) - 6.0/5.0) &lt; 1e-6
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def intersperse(numbers: List[int], delimeter: int) -&gt; List[int]:
+    """ Insert a number 'delimeter' between every two consecutive elements of input list `numbers'
+    &gt;&gt;&gt; intersperse([], 4)
+    []
+    &gt;&gt;&gt; intersperse([1, 2, 3], 4)
+    [1, 4, 2, 4, 3]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def intersperse(numbers: List[int], delimeter: int) -&gt; List[int]:
+    if not numbers:
+        return []
+    result = []
+    for n in numbers[:-1]:
+        result.append(n)
+        result.append(delimeter)
+    result.append(numbers[-1])
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>from solution import intersperse as candidate 
+def main():
+    assert candidate([], 7) == []
+    assert candidate([5, 6, 3, 2], 8) == [5, 8, 6, 8, 3, 8, 2]
+    assert candidate([2, 2, 2], 2) == [2, 2, 2, 2, 2]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def parse_nested_parens(paren_string: str) -&gt; List[int]:
+    """ Input to this function is a string represented multiple groups for nested parentheses separated by spaces.
+    For each of the group, output the deepest level of nesting of parentheses.
+    E.g. (()()) has maximum two levels of nesting while ((())) has three.
+    &gt;&gt;&gt; parse_nested_parens('(()()) ((())) () ((())()())')
+    [2, 3, 1, 3]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def parse_nested_parens(paren_string: str) -&gt; List[int]:
+    def parse_paren_group(s):
+        depth = 0
+        max_depth = 0
+        for c in s:
+            if c == '(':
+                depth += 1
+                max_depth = max(depth, max_depth)
+            else:
+                depth -= 1
+        return max_depth
+    return [parse_paren_group(x) for x in paren_string.split(' ') if x]
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>from solution import parse_nested_parens as candidate 
+def main():
+    assert candidate('(()()) ((())) () ((())()())') == [2, 3, 1, 3]
+    assert candidate('() (()) ((())) (((())))') == [1, 2, 3, 4]
+    assert candidate('(()(())((())))') == [4]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def filter_by_substring(strings: List[str], substring: str) -&gt; List[str]:
+    """ Filter an input list of strings only for ones that contain given substring
+    &gt;&gt;&gt; filter_by_substring([], 'a')
+    []
+    &gt;&gt;&gt; filter_by_substring(['abc', 'bacd', 'cde', 'array'], 'a')
+    ['abc', 'bacd', 'array']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def filter_by_substring(strings: List[str], substring: str) -&gt; List[str]:
+    return [x for x in strings if substring in x]
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>from solution import filter_by_substring as candidate 
+def main():
+    assert candidate([], 'john') == []
+    assert candidate(['xxx', 'asd', 'xxy', 'john doe', 'xxxAAA', 'xxx'], 'xxx') == ['xxx', 'xxxAAA', 'xxx']
+    assert candidate(['xxx', 'asd', 'aaaxxy', 'john doe', 'xxxAAA', 'xxx'], 'xx') == ['xxx', 'aaaxxy', 'xxxAAA', 'xxx']
+    assert candidate(['grunt', 'trumpet', 'prune', 'gruesome'], 'run') == ['grunt', 'prune']
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def sum_product(numbers: List[int]) -&gt; Tuple[int, int]:
+    """ For a given list of integers, return a tuple consisting of a sum and a product of all the integers in a list.
+    Empty sum should be equal to 0 and empty product should be equal to 1.
+    &gt;&gt;&gt; sum_product([])
+    (0, 1)
+    &gt;&gt;&gt; sum_product([1, 2, 3, 4])
+    (10, 24)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def sum_product(numbers: List[int]) -&gt; Tuple[int, int]:
+    sum_value = 0
+    prod_value = 1
+    for n in numbers:
+        sum_value += n
+        prod_value *= n
+    return sum_value, prod_value
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>from solution import sum_product as candidate 
+def main():
+    assert candidate([]) == (0, 1)
+    assert candidate([1, 1, 1]) == (3, 1)
+    assert candidate([100, 0]) == (100, 0)
+    assert candidate([3, 5, 7]) == (3 + 5 + 7, 3 * 5 * 7)
+    assert candidate([10]) == (10, 10)
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def rolling_max(numbers: List[int]) -&gt; List[int]:
+    """ From a given list of integers, generate a list of rolling maximum element found until given moment
+    in the sequence.
+    &gt;&gt;&gt; rolling_max([1, 2, 3, 2, 3, 4, 2])
+    [1, 2, 3, 3, 3, 4, 4]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def rolling_max(numbers: List[int]) -&gt; List[int]:
+    running_max = None
+    result = []
+    for n in numbers:
+        if running_max is None:
+            running_max = n
+        else:
+            running_max = max(running_max, n)
+        result.append(running_max)
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>from solution import rolling_max as candidate 
+def main():
+    assert candidate([]) == []
+    assert candidate([1, 2, 3, 4]) == [1, 2, 3, 4]
+    assert candidate([4, 3, 2, 1]) == [4, 4, 4, 4]
+    assert candidate([3, 2, 3, 100, 3]) == [3, 3, 3, 100, 100]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def string_xor(a: str, b: str) -&gt; str:
+    """ Input are two strings a and b consisting only of 1s and 0s.
+    Perform binary XOR on these inputs and return result also as a string.
+    &gt;&gt;&gt; string_xor('010', '110')
+    '100'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def string_xor(a: str, b: str) -&gt; str:
+    def xor(i, j):
+        if i == j:
+            return '0'
+        else:
+            return '1'
+    return ''.join(xor(x, y) for x, y in zip(a, b))
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>from solution import string_xor as candidate 
+def main():
+    assert candidate('111000', '101010') == '010010'
+    assert candidate('1', '1') == '0'
+    assert candidate('0101', '0000') == '0101'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Optional
+def longest(strings: List[str]) -&gt; Optional[str]:
+    """ Out of list of strings, return the longest one. Return the first one in case of multiple
+    strings of the same length. Return None in case the input list is empty.
+    &gt;&gt;&gt; longest([])
+    &gt;&gt;&gt; longest(['a', 'b', 'c'])
+    'a'
+    &gt;&gt;&gt; longest(['a', 'bb', 'ccc'])
+    'ccc'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Optional
+def longest(strings: List[str]) -&gt; Optional[str]:
+    if not strings:
+        return None
+    maxlen = max(len(x) for x in strings)
+    for s in strings:
+        if len(s) == maxlen:
+            return s
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>from solution import longest as candidate 
+def main():
+    assert candidate([]) == None
+    assert candidate(['x', 'y', 'z']) == 'x'
+    assert candidate(['x', 'yyy', 'zzzz', 'www', 'kkkk', 'abc']) == 'zzzz'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def greatest_common_divisor(a: int, b: int) -&gt; int:
+    """ Return a greatest common divisor of two integers a and b
+    &gt;&gt;&gt; greatest_common_divisor(3, 5)
+    1
+    &gt;&gt;&gt; greatest_common_divisor(25, 15)
+    5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def greatest_common_divisor(a: int, b: int) -&gt; int:
+    while b:
+        a, b = b, a % b
+    return a
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>from solution import greatest_common_divisor as candidate 
+def main():
+    assert candidate(3, 7) == 1
+    assert candidate(10, 15) == 5
+    assert candidate(49, 14) == 7
+    assert candidate(144, 60) == 12
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def all_prefixes(string: str) -&gt; List[str]:
+    """ Return list of all prefixes from shortest to longest of the input string
+    &gt;&gt;&gt; all_prefixes('abc')
+    ['a', 'ab', 'abc']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def all_prefixes(string: str) -&gt; List[str]:
+    result = []
+    for i in range(len(string)):
+        result.append(string[:i+1])
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>from solution import all_prefixes as candidate 
+def main():
+    assert candidate('') == []
+    assert candidate('asdfgh') == ['a', 'as', 'asd', 'asdf', 'asdfg', 'asdfgh']
+    assert candidate('WWW') == ['W', 'WW', 'WWW']
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def string_sequence(n: int) -&gt; str:
+    """ Return a string containing space-delimited numbers starting from 0 upto n inclusive.
+    &gt;&gt;&gt; string_sequence(0)
+    '0'
+    &gt;&gt;&gt; string_sequence(5)
+    '0 1 2 3 4 5'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def string_sequence(n: int) -&gt; str:
+    return ' '.join([str(x) for x in range(n + 1)])
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>from solution import string_sequence as candidate 
+def main():
+    assert candidate(0) == '0'
+    assert candidate(3) == '0 1 2 3'
+    assert candidate(10) == '0 1 2 3 4 5 6 7 8 9 10'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def count_distinct_characters(string: str) -&gt; int:
+    """ Given a string, find out how many distinct characters (regardless of case) does it consist of
+    &gt;&gt;&gt; count_distinct_characters('xyzXYZ')
+    3
+    &gt;&gt;&gt; count_distinct_characters('Jerry')
+    4
+    """
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def count_distinct_characters(string: str) -&gt; int:
+    return len(set(string.lower()))
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>from solution import count_distinct_characters as candidate 
+def main():
+    assert candidate('') == 0
+    assert candidate('abcde') == 5
+    assert candidate('abcde' + 'cade' + 'CADE') == 5
+    assert candidate('aaaaAAAAaaaa') == 1
+    assert candidate('Jerry jERRY JeRRRY') == 5
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def parse_music(music_string: str) -&gt; List[int]:
+    """ Input to this function is a string representing musical notes in a special ASCII format.
+    Your task is to parse this string and return list of integers corresponding to how many beats does each
+    not last.
+    Here is a legend:
+    'o' - whole note, lasts four beats
+    'o|' - half note, lasts two beats
+    '.|' - quater note, lasts one beat
+    &gt;&gt;&gt; parse_music('o o| .| o| o| .| .| .| .| o o')
+    [4, 2, 1, 2, 2, 1, 1, 1, 1, 4, 4]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def parse_music(music_string: str) -&gt; List[int]:
+    note_map = {'o': 4, 'o|': 2, '.|': 1}
+    return [note_map[x] for x in music_string.split(' ') if x]
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>from solution import parse_music as candidate 
+def main():
+    assert candidate('') == []
+    assert candidate('o o o o') == [4, 4, 4, 4]
+    assert candidate('.| .| .| .|') == [1, 1, 1, 1]
+    assert candidate('o| o| .| .| o o o o') == [2, 2, 1, 1, 4, 4, 4, 4]
+    assert candidate('o| .| o| .| o o| o o|') == [2, 1, 2, 1, 4, 2, 4, 2]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def how_many_times(string: str, substring: str) -&gt; int:
+    """ Find how many times a given substring can be found in the original string. Count overlaping cases.
+    &gt;&gt;&gt; how_many_times('', 'a')
+    0
+    &gt;&gt;&gt; how_many_times('aaa', 'a')
+    3
+    &gt;&gt;&gt; how_many_times('aaaa', 'aa')
+    3
+    """
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def how_many_times(string: str, substring: str) -&gt; int:
+    times = 0
+    for i in range(len(string) - len(substring) + 1):
+        if string[i:i+len(substring)] == substring:
+            times += 1
+    return times
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>from solution import how_many_times as candidate 
+def main():
+    assert candidate('', 'x') == 0
+    assert candidate('xyxyxyx', 'x') == 4
+    assert candidate('cacacacac', 'cac') == 4
+    assert candidate('john doe', 'john') == 1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def sort_numbers(numbers: str) -&gt; str:
+    """ Input is a space-delimited string of numberals from 'zero' to 'nine'.
+    Valid choices are 'zero', 'one', 'two', 'three', 'four', 'five', 'six', 'seven', 'eight' and 'nine'.
+    Return the string with numbers sorted from smallest to largest
+    &gt;&gt;&gt; sort_numbers('three one five')
+    'one three five'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def sort_numbers(numbers: str) -&gt; str:
+    value_map = {
+        'zero': 0,
+        'one': 1,
+        'two': 2,
+        'three': 3,
+        'four': 4,
+        'five': 5,
+        'six': 6,
+        'seven': 7,
+        'eight': 8,
+        'nine': 9
+    }
+    return ' '.join(sorted([x for x in numbers.split(' ') if x], key=lambda x: value_map[x]))
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>from solution import sort_numbers as candidate 
+def main():
+    assert candidate('') == ''
+    assert candidate('three') == 'three'
+    assert candidate('three five nine') == 'three five nine'
+    assert candidate('five zero four seven nine eight') == 'zero four five seven eight nine'
+    assert candidate('six five four three two one zero') == 'zero one two three four five six'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def find_closest_elements(numbers: List[float]) -&gt; Tuple[float, float]:
+    """ From a supplied list of numbers (of length at least two) select and return two that are the closest to each
+    other and return them in order (smaller number, larger number).
+    &gt;&gt;&gt; find_closest_elements([1.0, 2.0, 3.0, 4.0, 5.0, 2.2])
+    (2.0, 2.2)
+    &gt;&gt;&gt; find_closest_elements([1.0, 2.0, 3.0, 4.0, 5.0, 2.0])
+    (2.0, 2.0)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Tuple
+def find_closest_elements(numbers: List[float]) -&gt; Tuple[float, float]:
+    closest_pair = None
+    distance = None
+    for idx, elem in enumerate(numbers):
+        for idx2, elem2 in enumerate(numbers):
+            if idx != idx2:
+                if distance is None:
+                    distance = abs(elem - elem2)
+                    closest_pair = tuple(sorted([elem, elem2]))
+                else:
+                    new_distance = abs(elem - elem2)
+                    if new_distance &lt; distance:
+                        distance = new_distance
+                        closest_pair = tuple(sorted([elem, elem2]))
+    return closest_pair
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>from solution import find_closest_elements as candidate 
+def main():
+    assert candidate([1.0, 2.0, 3.9, 4.0, 5.0, 2.2]) == (3.9, 4.0)
+    assert candidate([1.0, 2.0, 5.9, 4.0, 5.0]) == (5.0, 5.9)
+    assert candidate([1.0, 2.0, 3.0, 4.0, 5.0, 2.2]) == (2.0, 2.2)
+    assert candidate([1.0, 2.0, 3.0, 4.0, 5.0, 2.0]) == (2.0, 2.0)
+    assert candidate([1.1, 2.2, 3.1, 4.1, 5.1]) == (2.2, 3.1)
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def rescale_to_unit(numbers: List[float]) -&gt; List[float]:
+    """ Given list of numbers (of at least two elements), apply a linear transform to that list,
+    such that the smallest number will become 0 and the largest will become 1
+    &gt;&gt;&gt; rescale_to_unit([1.0, 2.0, 3.0, 4.0, 5.0])
+    [0.0, 0.25, 0.5, 0.75, 1.0]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def rescale_to_unit(numbers: List[float]) -&gt; List[float]:
+    min_number = min(numbers)
+    max_number = max(numbers)
+    return [(x - min_number) / (max_number - min_number) for x in numbers]
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>from solution import rescale_to_unit as candidate 
+def main():
+    assert candidate([2.0, 49.9]) == [0.0, 1.0]
+    assert candidate([100.0, 49.9]) == [1.0, 0.0]
+    assert candidate([1.0, 2.0, 3.0, 4.0, 5.0]) == [0.0, 0.25, 0.5, 0.75, 1.0]
+    assert candidate([2.0, 1.0, 5.0, 3.0, 4.0]) == [0.25, 0.0, 1.0, 0.5, 0.75]
+    assert candidate([12.0, 11.0, 15.0, 13.0, 14.0]) == [0.25, 0.0, 1.0, 0.5, 0.75]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Any
+def filter_integers(values: List[Any]) -&gt; List[int]:
+    """ Filter given list of any python values only for integers
+    &gt;&gt;&gt; filter_integers(['a', 3.14, 5])
+    [5]
+    &gt;&gt;&gt; filter_integers([1, 2, 3, 'abc', {}, []])
+    [1, 2, 3]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List, Any
+def filter_integers(values: List[Any]) -&gt; List[int]:
+    return [x for x in values if isinstance(x, int)]
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>from solution import filter_integers as candidate 
+def main():
+    assert candidate([]) == []
+    assert candidate([4, {}, [], 23.2, 9, 'adasd']) == [4, 9]
+    assert candidate([3, 'c', 3, 3, 'a', 'b']) == [3, 3, 3]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def strlen(string: str) -&gt; int:
+    """ Return length of given string
+    &gt;&gt;&gt; strlen('')
+    0
+    &gt;&gt;&gt; strlen('abc')
+    3
+    """
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def strlen(string: str) -&gt; int:
+    return len(string)
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>from solution import strlen as candidate 
+def main():
+    assert candidate('') == 0
+    assert candidate('x') == 1
+    assert candidate('asdasnakj') == 9
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def largest_divisor(n: int) -&gt; int:
+    """ For a given number n, find the largest number that divides n evenly, smaller than n
+    &gt;&gt;&gt; largest_divisor(15)
+    5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def largest_divisor(n: int) -&gt; int:
+    for i in reversed(range(n)):
+        if n % i == 0:
+            return i
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>from solution import largest_divisor as candidate 
+def main():
+    assert candidate(3) == 1
+    assert candidate(7) == 1
+    assert candidate(10) == 5
+    assert candidate(100) == 50
+    assert candidate(49) == 7
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def factorize(n: int) -&gt; List[int]:
+    """ Return list of prime factors of given integer in the order from smallest to largest.
+    Each of the factors should be listed number of times corresponding to how many times it appeares in factorization.
+    Input number should be equal to the product of all factors
+    &gt;&gt;&gt; factorize(8)
+    [2, 2, 2]
+    &gt;&gt;&gt; factorize(25)
+    [5, 5]
+    &gt;&gt;&gt; factorize(70)
+    [2, 5, 7]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def factorize(n: int) -&gt; List[int]:
+    import math
+    fact = []
+    i = 2
+    while i &lt;= int(math.sqrt(n) + 1):
+        if n % i == 0:
+            fact.append(i)
+            n //= i
+        else:
+            i += 1
+    if n &gt; 1:
+        fact.append(n)
+    return fact
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>from solution import factorize as candidate 
+def main():
+    assert candidate(2) == [2]
+    assert candidate(4) == [2, 2]
+    assert candidate(8) == [2, 2, 2]
+    assert candidate(3 * 19) == [3, 19]
+    assert candidate(3 * 19 * 3 * 19) == [3, 3, 19, 19]
+    assert candidate(3 * 19 * 3 * 19 * 3 * 19) == [3, 3, 3, 19, 19, 19]
+    assert candidate(3 * 19 * 19 * 19) == [3, 19, 19, 19]
+    assert candidate(3 * 2 * 3) == [2, 3, 3]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def remove_duplicates(numbers: List[int]) -&gt; List[int]:
+    """ From a list of integers, remove all elements that occur more than once.
+    Keep order of elements left the same as in the input.
+    &gt;&gt;&gt; remove_duplicates([1, 2, 3, 2, 4])
+    [1, 3, 4]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def remove_duplicates(numbers: List[int]) -&gt; List[int]:
+    import collections
+    c = collections.Counter(numbers)
+    return [n for n in numbers if c[n] &lt;= 1]
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>from solution import remove_duplicates as candidate 
+def main():
+    assert candidate([]) == []
+    assert candidate([1, 2, 3, 4]) == [1, 2, 3, 4]
+    assert candidate([1, 2, 3, 2, 4, 3, 5]) == [1, 4, 5]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def flip_case(string: str) -&gt; str:
+    """ For a given string, flip lowercase characters to uppercase and uppercase to lowercase.
+    &gt;&gt;&gt; flip_case('Hello')
+    'hELLO'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def flip_case(string: str) -&gt; str:
+    return string.swapcase()
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>from solution import flip_case as candidate 
+def main():
+    assert candidate('') == ''
+    assert candidate('Hello!') == 'hELLO!'
+    assert candidate('These violent delights have violent ends') == 'tHESE VIOLENT DELIGHTS HAVE VIOLENT ENDS'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def concatenate(strings: List[str]) -&gt; str:
+    """ Concatenate list of strings into a single string
+    &gt;&gt;&gt; concatenate([])
+    ''
+    &gt;&gt;&gt; concatenate(['a', 'b', 'c'])
+    'abc'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def concatenate(strings: List[str]) -&gt; str:
+    return ''.join(strings)
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>from solution import concatenate as candidate 
+def main():
+    assert candidate([]) == ''
+    assert candidate(['x', 'y', 'z']) == 'xyz'
+    assert candidate(['x', 'y', 'z', 'w', 'k']) == 'xyzwk'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def filter_by_prefix(strings: List[str], prefix: str) -&gt; List[str]:
+    """ Filter an input list of strings only for ones that start with a given prefix.
+    &gt;&gt;&gt; filter_by_prefix([], 'a')
+    []
+    &gt;&gt;&gt; filter_by_prefix(['abc', 'bcd', 'cde', 'array'], 'a')
+    ['abc', 'array']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from typing import List
+def filter_by_prefix(strings: List[str], prefix: str) -&gt; List[str]:
+    return [x for x in strings if x.startswith(prefix)]
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>from solution import filter_by_prefix as candidate 
+def main():
+    assert candidate([], 'john') == []
+    assert candidate(['xxx', 'asd', 'xxy', 'john doe', 'xxxAAA', 'xxx'], 'xxx') == ['xxx', 'xxxAAA', 'xxx']
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def get_positive(l: list):
+    """Return only positive numbers in the list.
+    &gt;&gt;&gt; get_positive([-1, 2, -4, 5, 6])
+    [2, 5, 6]
+    &gt;&gt;&gt; get_positive([5, 3, -5, 2, -3, 3, 9, 0, 123, 1, -10])
+    [5, 3, 2, 3, 9, 123, 1]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_positive(l: list):
+    return [e for e in l if e &gt; 0]
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>from solution import get_positive as candidate 
+def main():
+    assert candidate([-1, -2, 4, 5, 6]) == [4, 5, 6]
+    assert candidate([5, 3, -5, 2, 3, 3, 9, 0, 123, 1, -10]) == [5, 3, 2, 3, 3, 9, 123, 1]
+    assert candidate([-1, -2]) == []
+    assert candidate([]) == []
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_prime(n):
+    """Return true if a given number is prime, and false otherwise.
+    &gt;&gt;&gt; is_prime(6)
+    False
+    &gt;&gt;&gt; is_prime(101)
+    True
+    &gt;&gt;&gt; is_prime(11)
+    True
+    &gt;&gt;&gt; is_prime(13441)
+    True
+    &gt;&gt;&gt; is_prime(61)
+    True
+    &gt;&gt;&gt; is_prime(4)
+    False
+    &gt;&gt;&gt; is_prime(1)
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_prime(n):
+    if n &lt; 2:
+        return False
+    for k in range(2, n - 1):
+        if n % k == 0:
+            return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>from solution import is_prime as candidate 
+def main():
+    assert candidate(6) == False
+    assert candidate(101) == True
+    assert candidate(11) == True
+    assert candidate(13441) == True
+    assert candidate(61) == True
+    assert candidate(4) == False
+    assert candidate(1) == False
+    assert candidate(5) == True
+    assert candidate(11) == True
+    assert candidate(17) == True
+    assert candidate(5 * 17) == False
+    assert candidate(11 * 7) == False
+    assert candidate(13441 * 19) == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sort_third(l: list):
+    """This function takes a list l and returns a list l' such that
+    l' is identical to l in the indicies that are not divisible by three, while its values at the indicies that are divisible by three are equal
+    to the values of the corresponding indicies of l, but sorted.
+    &gt;&gt;&gt; sort_third([1, 2, 3])
+    [1, 2, 3]
+    &gt;&gt;&gt; sort_third([5, 6, 3, 4, 8, 9, 2])
+    [2, 6, 3, 4, 8, 9, 5]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sort_third(l: list):
+    l = list(l)
+    l[::3] = sorted(l[::3])
+    return l
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>from solution import sort_third as candidate 
+def main():
+    assert tuple(candidate([1, 2, 3])) == tuple(sort_third([1, 2, 3]))
+    assert tuple(candidate([5, 3, -5, 2, -3, 3, 9, 0, 123, 1, -10])) == tuple(sort_third([5, 3, -5, 2, -3, 3, 9, 0, 123, 1, -10]))
+    assert tuple(candidate([5, 8, -12, 4, 23, 2, 3, 11, 12, -10])) == tuple(sort_third([5, 8, -12, 4, 23, 2, 3, 11, 12, -10]))
+    assert tuple(candidate([5, 6, 3, 4, 8, 9, 2])) == tuple([2, 6, 3, 4, 8, 9, 5])
+    assert tuple(candidate([5, 8, 3, 4, 6, 9, 2])) == tuple([2, 8, 3, 4, 6, 9, 5])
+    assert tuple(candidate([5, 6, 9, 4, 8, 3, 2])) == tuple([2, 6, 9, 4, 8, 3, 5])
+    assert tuple(candidate([5, 6, 3, 4, 8, 9, 2, 1])) == tuple([2, 6, 3, 4, 8, 9, 5, 1])
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def unique(l: list):
+    """Return sorted unique elements in a list
+    &gt;&gt;&gt; unique([5, 3, 5, 2, 3, 3, 9, 0, 123])
+    [0, 2, 3, 5, 9, 123]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def unique(l: list):
+    return sorted(list(set(l)))
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>from solution import unique as candidate 
+def main():
+    assert candidate([5, 3, 5, 2, 3, 3, 9, 0, 123]) == [0, 2, 3, 5, 9, 123]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def max_element(l: list):
+    """Return maximum element in the list.
+    &gt;&gt;&gt; max_element([1, 2, 3])
+    3
+    &gt;&gt;&gt; max_element([5, 3, -5, 2, -3, 3, 9, 0, 123, 1, -10])
+    123
+    """
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def max_element(l: list):
+    m = l[0]
+    for e in l:
+        if e &gt; m:
+            m = e
+    return m
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>from solution import max_element as candidate 
+def main():
+    assert candidate([1, 2, 3]) == 3
+    assert candidate([5, 3, -5, 2, -3, 3, 9, 0, 124, 1, -10]) == 124
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fizz_buzz(n: int):
+    """Return the number of times the digit 7 appears in integers less than n which are divisible by 11 or 13.
+    &gt;&gt;&gt; fizz_buzz(50)
+    0
+    &gt;&gt;&gt; fizz_buzz(78)
+    2
+    &gt;&gt;&gt; fizz_buzz(79)
+    3
+    """
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fizz_buzz(n: int):
+    ns = []
+    for i in range(n):
+        if i % 11 == 0 or i % 13 == 0:
+            ns.append(i)
+    s = ''.join(list(map(str, ns)))
+    ans = 0
+    for c in s:
+        ans += (c == '7')
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>from solution import fizz_buzz as candidate 
+def main():
+    assert candidate(50) == 0
+    assert candidate(78) == 2
+    assert candidate(79) == 3
+    assert candidate(100) == 3
+    assert candidate(200) == 6
+    assert candidate(4000) == 192
+    assert candidate(10000) == 639
+    assert candidate(100000) == 8026
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sort_even(l: list):
+    """This function takes a list l and returns a list l' such that
+    l' is identical to l in the odd indicies, while its values at the even indicies are equal
+    to the values of the even indicies of l, but sorted.
+    &gt;&gt;&gt; sort_even([1, 2, 3])
+    [1, 2, 3]
+    &gt;&gt;&gt; sort_even([5, 6, 3, 4])
+    [3, 6, 5, 4]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sort_even(l: list):
+    evens = l[::2]
+    odds = l[1::2]
+    evens.sort()
+    ans = []
+    for e, o in zip(evens, odds):
+        ans.extend([e, o])
+    if len(evens) &gt; len(odds):
+        ans.append(evens[-1])
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>from solution import sort_even as candidate 
+def main():
+    assert tuple(candidate([1, 2, 3])) == tuple([1, 2, 3])
+    assert tuple(candidate([5, 3, -5, 2, -3, 3, 9, 0, 123, 1, -10])) == tuple([-10, 3, -5, 2, -3, 3, 5, 0, 9, 1, 123])
+    assert tuple(candidate([5, 8, -12, 4, 23, 2, 3, 11, 12, -10])) == tuple([-12, 8, 3, 4, 5, 2, 12, 11, 23, -10])
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def prime_fib(n: int):
+    """
+    prime_fib returns n-th number that is a Fibonacci number and it's also prime.
+    &gt;&gt;&gt; prime_fib(1)
+    2
+    &gt;&gt;&gt; prime_fib(2)
+    3
+    &gt;&gt;&gt; prime_fib(3)
+    5
+    &gt;&gt;&gt; prime_fib(4)
+    13
+    &gt;&gt;&gt; prime_fib(5)
+    89
+    """
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def prime_fib(n: int):
+    import math
+    def is_prime(p):
+        if p &lt; 2:
+            return False
+        for k in range(2, min(int(math.sqrt(p)) + 1, p - 1)):
+            if p % k == 0:
+                return False
+        return True
+    f = [0, 1]
+    while True:
+        f.append(f[-1] + f[-2])
+        if is_prime(f[-1]):
+            n -= 1
+        if n == 0:
+            return f[-1]
+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>from solution import prime_fib as candidate 
+def main():
+    assert candidate(1) == 2
+    assert candidate(2) == 3
+    assert candidate(3) == 5
+    assert candidate(4) == 13
+    assert candidate(5) == 89
+    assert candidate(6) == 233
+    assert candidate(7) == 1597
+    assert candidate(8) == 28657
+    assert candidate(9) == 514229
+    assert candidate(10) == 433494437
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def triples_sum_to_zero(l: list):
+    """
+    triples_sum_to_zero takes a list of integers as an input.
+    it returns True if there are three distinct elements in the list that
+    sum to zero, and False otherwise.
+    &gt;&gt;&gt; triples_sum_to_zero([1, 3, 5, 0])
+    False
+    &gt;&gt;&gt; triples_sum_to_zero([1, 3, -2, 1])
+    True
+    &gt;&gt;&gt; triples_sum_to_zero([1, 2, 3, 7])
+    False
+    &gt;&gt;&gt; triples_sum_to_zero([2, 4, -5, 3, 9, 7])
+    True
+    &gt;&gt;&gt; triples_sum_to_zero([1])
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def triples_sum_to_zero(l: list):
+    for i in range(len(l)):
+        for j in range(i + 1, len(l)):
+            for k in range(j + 1, len(l)):
+                if l[i] + l[j] + l[k] == 0:
+                    return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>from solution import triples_sum_to_zero as candidate 
+def main():
+    assert candidate([1, 3, 5, 0]) == False
+    assert candidate([1, 3, 5, -1]) == False
+    assert candidate([1, 3, -2, 1]) == True
+    assert candidate([1, 2, 3, 7]) == False
+    assert candidate([1, 2, 5, 7]) == False
+    assert candidate([2, 4, -5, 3, 9, 7]) == True
+    assert candidate([1]) == False
+    assert candidate([1, 3, 5, -100]) == False
+    assert candidate([100, 3, 5, -100]) == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def car_race_collision(n: int):
+    """
+    Imagine a road that's a perfectly straight infinitely long line.
+    n cars are driving left to right;  simultaneously, a different set of n cars
+    are driving right to left.   The two sets of cars start out being very far from
+    each other.  All cars move in the same speed.  Two cars are said to collide
+    when a car that's moving left to right hits a car that's moving right to left.
+    However, the cars are infinitely sturdy and strong; as a result, they continue moving
+    in their trajectory as if they did not collide.
+    This function outputs the number of such collisions.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def car_race_collision(n: int):
+    return n**2
+</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>from solution import car_race_collision as candidate 
+def main():
+    assert candidate(2) == 4
+    assert candidate(3) == 9
+    assert candidate(4) == 16
+    assert candidate(8) == 64
+    assert candidate(10) == 100
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def incr_list(l: list):
+    """Return list with elements incremented by 1.
+    &gt;&gt;&gt; incr_list([1, 2, 3])
+    [2, 3, 4]
+    &gt;&gt;&gt; incr_list([5, 3, 5, 2, 3, 3, 9, 0, 123])
+    [6, 4, 6, 3, 4, 4, 10, 1, 124]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def incr_list(l: list):
+    return [(e + 1) for e in l]
+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>from solution import incr_list as candidate 
+def main():
+    assert candidate([]) == []
+    assert candidate([3, 2, 1]) == [4, 3, 2]
+    assert candidate([5, 2, 5, 2, 3, 3, 9, 0, 123]) == [6, 3, 6, 3, 4, 4, 10, 1, 124]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def pairs_sum_to_zero(l):
+    """
+    pairs_sum_to_zero takes a list of integers as an input.
+    it returns True if there are two distinct elements in the list that
+    sum to zero, and False otherwise.
+    &gt;&gt;&gt; pairs_sum_to_zero([1, 3, 5, 0])
+    False
+    &gt;&gt;&gt; pairs_sum_to_zero([1, 3, -2, 1])
+    False
+    &gt;&gt;&gt; pairs_sum_to_zero([1, 2, 3, 7])
+    False
+    &gt;&gt;&gt; pairs_sum_to_zero([2, 4, -5, 3, 5, 7])
+    True
+    &gt;&gt;&gt; pairs_sum_to_zero([1])
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pairs_sum_to_zero(l):
+    for i, l1 in enumerate(l):
+        for j in range(i + 1, len(l)):
+            if l1 + l[j] == 0:
+                return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>from solution import pairs_sum_to_zero as candidate 
+def main():
+    assert candidate([1, 3, 5, 0]) == False
+    assert candidate([1, 3, -2, 1]) == False
+    assert candidate([1, 2, 3, 7]) == False
+    assert candidate([2, 4, -5, 3, 5, 7]) == True
+    assert candidate([1]) == False
+    assert candidate([-3, 9, -1, 3, 2, 30]) == True
+    assert candidate([-3, 9, -1, 3, 2, 31]) == True
+    assert candidate([-3, 9, -1, 4, 2, 30]) == False
+    assert candidate([-3, 9, -1, 4, 2, 31]) == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def change_base(x: int, base: int):
+    """Change numerical base of input number x to base.
+    return string representation after the conversion.
+    base numbers are less than 10.
+    &gt;&gt;&gt; change_base(8, 3)
+    '22'
+    &gt;&gt;&gt; change_base(8, 2)
+    '1000'
+    &gt;&gt;&gt; change_base(7, 2)
+    '111'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def change_base(x: int, base: int):
+    ret = ""
+    while x &gt; 0:
+        ret = str(x % base) + ret
+        x //= base
+    return ret
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>from solution import change_base as candidate 
+def main():
+    assert candidate(8, 3) == "22"
+    assert candidate(9, 3) == "100"
+    assert candidate(234, 2) == "11101010"
+    assert candidate(16, 2) == "10000"
+    assert candidate(8, 2) == "1000"
+    assert candidate(7, 2) == "111"
+    for x in range(2, 8):
+        assert candidate(x, x + 1) == str(x)
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def triangle_area(a, h):
+    """Given length of a side and high return area for a triangle.
+    &gt;&gt;&gt; triangle_area(5, 3)
+    7.5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def triangle_area(a, h):
+    return a * h / 2.0
+</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>from solution import triangle_area as candidate 
+def main():
+    assert candidate(5, 3) == 7.5
+    assert candidate(2, 2) == 2.0
+    assert candidate(10, 8) == 40.0
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fib4(n: int):
+    """The Fib4 number sequence is a sequence similar to the Fibbonacci sequnece that's defined as follows:
+    fib4(0) -&gt; 0
+    fib4(1) -&gt; 0
+    fib4(2) -&gt; 2
+    fib4(3) -&gt; 0
+    fib4(n) -&gt; fib4(n-1) + fib4(n-2) + fib4(n-3) + fib4(n-4).
+    Please write a function to efficiently compute the n-th element of the fib4 number sequence.  Do not use recursion.
+    &gt;&gt;&gt; fib4(5)
+    4
+    &gt;&gt;&gt; fib4(6)
+    8
+    &gt;&gt;&gt; fib4(7)
+    14
+    """
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fib4(n: int):
+    results = [0, 0, 2, 0]
+    if n &lt; 4:
+        return results[n]
+    for _ in range(4, n + 1):
+        results.append(results[-1] + results[-2] + results[-3] + results[-4])
+        results.pop(0)
+    return results[-1]
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>from solution import fib4 as candidate 
+def main():
+    assert candidate(5) == 4
+    assert candidate(8) == 28
+    assert candidate(10) == 104
+    assert candidate(12) == 386
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def median(l: list):
+    """Return median of elements in the list l.
+    &gt;&gt;&gt; median([3, 1, 2, 4, 5])
+    3
+    &gt;&gt;&gt; median([-10, 4, 6, 1000, 10, 20])
+    15.0
+    """
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def median(l: list):
+    l = sorted(l)
+    if len(l) % 2 == 1:
+        return l[len(l) // 2]
+    else:
+        return (l[len(l) // 2 - 1] + l[len(l) // 2]) / 2.0
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>from solution import median as candidate 
+def main():
+    assert candidate([3, 1, 2, 4, 5]) == 3
+    assert candidate([-10, 4, 6, 1000, 10, 20]) == 8.0
+    assert candidate([5]) == 5
+    assert candidate([6, 5]) == 5.5
+    assert candidate([8, 1, 3, 9, 9, 2, 7]) == 7 
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_palindrome(text: str):
+    """
+    Checks if given string is a palindrome
+    &gt;&gt;&gt; is_palindrome('')
+    True
+    &gt;&gt;&gt; is_palindrome('aba')
+    True
+    &gt;&gt;&gt; is_palindrome('aaaaa')
+    True
+    &gt;&gt;&gt; is_palindrome('zbcd')
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_palindrome(text: str):
+    for i in range(len(text)):
+        if text[i] != text[len(text) - 1 - i]:
+            return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>from solution import is_palindrome as candidate 
+def main():
+    assert candidate('') == True
+    assert candidate('aba') == True
+    assert candidate('aaaaa') == True
+    assert candidate('zbcd') == False
+    assert candidate('xywyx') == True
+    assert candidate('xywyz') == False
+    assert candidate('xywzx') == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def modp(n: int, p: int):
+    """Return 2^n modulo p (be aware of numerics).
+    &gt;&gt;&gt; modp(3, 5)
+    3
+    &gt;&gt;&gt; modp(1101, 101)
+    2
+    &gt;&gt;&gt; modp(0, 101)
+    1
+    &gt;&gt;&gt; modp(3, 11)
+    8
+    &gt;&gt;&gt; modp(100, 101)
+    1
+    """
+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def modp(n: int, p: int):
+    ret = 1
+    for i in range(n):
+        ret = (2 * ret) % p
+    return ret
+</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>from solution import modp as candidate 
+def main():
+    assert candidate(3, 5) == 3
+    assert candidate(1101, 101) == 2
+    assert candidate(0, 101) == 1
+    assert candidate(3, 11) == 8
+    assert candidate(100, 101) == 1
+    assert candidate(30, 5) == 4
+    assert candidate(31, 5) == 3
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def remove_vowels(text):
+    """
+    remove_vowels is a function that takes string and returns string without vowels.
+    &gt;&gt;&gt; remove_vowels('')
+    ''
+    &gt;&gt;&gt; remove_vowels("abcdef\nghijklm")
+    'bcdf\nghjklm'
+    &gt;&gt;&gt; remove_vowels('abcdef')
+    'bcdf'
+    &gt;&gt;&gt; remove_vowels('aaaaa')
+    ''
+    &gt;&gt;&gt; remove_vowels('aaBAA')
+    'B'
+    &gt;&gt;&gt; remove_vowels('zbcd')
+    'zbcd'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def remove_vowels(text):
+    return "".join([s for s in text if s.lower() not in ["a", "e", "i", "o", "u"]])
+</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>from solution import remove_vowels as candidate 
+def main():
+    assert candidate('') == ''
+    assert candidate("abcdef\nghijklm") == 'bcdf\nghjklm'
+    assert candidate('fedcba') == 'fdcb'
+    assert candidate('eeeee') == ''
+    assert candidate('acBAA') == 'cB'
+    assert candidate('EcBOO') == 'cB'
+    assert candidate('ybcd') == 'ybcd'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def below_threshold(l: list, t: int):
+    """Return True if all numbers in the list l are below threshold t.
+    &gt;&gt;&gt; below_threshold([1, 2, 4, 10], 100)
+    True
+    &gt;&gt;&gt; below_threshold([1, 20, 4, 10], 5)
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def below_threshold(l: list, t: int):
+    for e in l:
+        if e &gt;= t:
+            return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>from solution import below_threshold as candidate 
+def main():
+    assert candidate([1, 2, 4, 10], 100)
+    assert not candidate([1, 20, 4, 10], 5)
+    assert candidate([1, 20, 4, 10], 21)
+    assert candidate([1, 20, 4, 10], 22)
+    assert candidate([1, 8, 4, 10], 11)
+    assert not candidate([1, 8, 4, 10], 10)
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def add(x: int, y: int):
+    """Add two numbers x and y
+    &gt;&gt;&gt; add(2, 3)
+    5
+    &gt;&gt;&gt; add(5, 7)
+    12
+    """
+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def add(x: int, y: int):
+    return x + y
+</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>from solution import add as candidate 
+def main():
+    import random
+    assert candidate(0, 1) == 1
+    assert candidate(1, 0) == 1
+    assert candidate(2, 3) == 5
+    assert candidate(5, 7) == 12
+    assert candidate(7, 5) == 12
+    for i in range(100):
+        x, y = random.randint(0, 1000), random.randint(0, 1000)
+        assert candidate(x, y) == x + y
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def same_chars(s0: str, s1: str):
+    """
+    Check if two words have the same characters.
+    &gt;&gt;&gt; same_chars('eabcdzzzz', 'dddzzzzzzzddeddabc')
+    True
+    &gt;&gt;&gt; same_chars('abcd', 'dddddddabc')
+    True
+    &gt;&gt;&gt; same_chars('dddddddabc', 'abcd')
+    True
+    &gt;&gt;&gt; same_chars('eabcd', 'dddddddabc')
+    False
+    &gt;&gt;&gt; same_chars('abcd', 'dddddddabce')
+    False
+    &gt;&gt;&gt; same_chars('eabcdzzzz', 'dddzzzzzzzddddabc')
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def same_chars(s0: str, s1: str):
+    return set(s0) == set(s1)
+</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>from solution import same_chars as candidate 
+def main():
+    assert candidate('eabcdzzzz', 'dddzzzzzzzddeddabc') == True
+    assert candidate('abcd', 'dddddddabc') == True
+    assert candidate('dddddddabc', 'abcd') == True
+    assert candidate('eabcd', 'dddddddabc') == False
+    assert candidate('abcd', 'dddddddabcf') == False
+    assert candidate('eabcdzzzz', 'dddzzzzzzzddddabc') == False
+    assert candidate('aabb', 'aaccc') == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fib(n: int):
+    """Return n-th Fibonacci number.
+    &gt;&gt;&gt; fib(10)
+    55
+    &gt;&gt;&gt; fib(1)
+    1
+    &gt;&gt;&gt; fib(8)
+    21
+    """
+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fib(n: int):
+    if n == 0:
+        return 0
+    if n == 1:
+        return 1
+    return fib(n - 1) + fib(n - 2)
+</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>from solution import fib as candidate 
+def main():
+    assert candidate(10) == 55
+    assert candidate(1) == 1
+    assert candidate(8) == 21
+    assert candidate(11) == 89
+    assert candidate(12) == 144
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def correct_bracketing(brackets: str):
+    """ brackets is a string of "&lt;" and "&gt;".
+    return True if every opening bracket has a corresponding closing bracket.
+    &gt;&gt;&gt; correct_bracketing("&lt;")
+    False
+    &gt;&gt;&gt; correct_bracketing("&lt;&gt;")
+    True
+    &gt;&gt;&gt; correct_bracketing("&lt;&lt;&gt;&lt;&gt;&gt;")
+    True
+    &gt;&gt;&gt; correct_bracketing("&gt;&lt;&lt;&gt;")
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def correct_bracketing(brackets: str):
+    depth = 0
+    for b in brackets:
+        if b == "&lt;":
+            depth += 1
+        else:
+            depth -= 1
+        if depth &lt; 0:
+            return False
+    return depth == 0
+</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>from solution import correct_bracketing as candidate 
+def main():
+    assert candidate("&lt;&gt;")
+    assert candidate("&lt;&lt;&gt;&lt;&gt;&gt;")
+    assert candidate("&lt;&gt;&lt;&gt;&lt;&lt;&gt;&lt;&gt;&gt;&lt;&gt;")
+    assert candidate("&lt;&gt;&lt;&gt;&lt;&lt;&lt;&gt;&lt;&gt;&lt;&gt;&gt;&lt;&gt;&gt;&lt;&lt;&gt;&lt;&gt;&lt;&lt;&gt;&gt;&gt;")
+    assert not candidate("&lt;&lt;&lt;&gt;&lt;&gt;&gt;&gt;&gt;")
+    assert not candidate("&gt;&lt;&lt;&gt;")
+    assert not candidate("&lt;")
+    assert not candidate("&lt;&lt;&lt;&lt;")
+    assert not candidate("&gt;")
+    assert not candidate("&lt;&lt;&gt;")
+    assert not candidate("&lt;&gt;&lt;&gt;&lt;&lt;&gt;&lt;&gt;&gt;&lt;&gt;&gt;&lt;&lt;&gt;")
+    assert not candidate("&lt;&gt;&lt;&gt;&lt;&lt;&gt;&lt;&gt;&gt;&lt;&gt;&gt;&gt;&lt;&gt;")
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def monotonic(l: list):
+    """Return True is list elements are monotonically increasing or decreasing.
+    &gt;&gt;&gt; monotonic([1, 2, 4, 20])
+    True
+    &gt;&gt;&gt; monotonic([1, 20, 4, 10])
+    False
+    &gt;&gt;&gt; monotonic([4, 1, 0, -10])
+    True
+    """
+</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def monotonic(l: list):
+    if l == sorted(l) or l == sorted(l, reverse=True):
+        return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>from solution import monotonic as candidate 
+def main():
+    assert candidate([1, 2, 4, 10]) == True
+    assert candidate([1, 2, 4, 20]) == True
+    assert candidate([1, 20, 4, 10]) == False
+    assert candidate([4, 1, 0, -10]) == True
+    assert candidate([4, 1, 1, 0]) == True
+    assert candidate([1, 2, 3, 2, 5, 60]) == False
+    assert candidate([1, 2, 3, 4, 5, 60]) == True
+    assert candidate([9, 9, 9, 9]) == True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def common(l1: list, l2: list):
+    """Return sorted unique common elements for two lists.
+    &gt;&gt;&gt; common([1, 4, 3, 34, 653, 2, 5], [5, 7, 1, 5, 9, 653, 121])
+    [1, 5, 653]
+    &gt;&gt;&gt; common([5, 3, 2, 8], [3, 2])
+    [2, 3]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def common(l1: list, l2: list):
+    ret = set()
+    for e1 in l1:
+        for e2 in l2:
+            if e1 == e2:
+                ret.add(e1)
+    return sorted(list(ret))
+</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>from solution import common as candidate 
+def main():
+    assert candidate([1, 4, 3, 34, 653, 2, 5], [5, 7, 1, 5, 9, 653, 121]) == [1, 5, 653]
+    assert candidate([5, 3, 2, 8], [3, 2]) == [2, 3]
+    assert candidate([4, 3, 2, 8], [3, 2, 4]) == [2, 3, 4]
+    assert candidate([4, 3, 2, 8], []) == []
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def largest_prime_factor(n: int):
+    """Return the largest prime factor of n. Assume n &gt; 1 and is not a prime.
+    &gt;&gt;&gt; largest_prime_factor(13195)
+    29
+    &gt;&gt;&gt; largest_prime_factor(2048)
+    2
+    """
+</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def largest_prime_factor(n: int):
+    def is_prime(k):
+        if k &lt; 2:
+            return False
+        for i in range(2, k - 1):
+            if k % i == 0:
+                return False
+        return True
+    largest = 1
+    for j in range(2, n + 1):
+        if n % j == 0 and is_prime(j):
+            largest = max(largest, j)
+    return largest
+</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>from solution import largest_prime_factor as candidate 
+def main():
+    assert candidate(15) == 5
+    assert candidate(27) == 3
+    assert candidate(63) == 7
+    assert candidate(330) == 11
+    assert candidate(13195) == 29
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sum_to_n(n: int):
+    """sum_to_n is a function that sums numbers from 1 to n.
+    &gt;&gt;&gt; sum_to_n(30)
+    465
+    &gt;&gt;&gt; sum_to_n(100)
+    5050
+    &gt;&gt;&gt; sum_to_n(5)
+    15
+    &gt;&gt;&gt; sum_to_n(10)
+    55
+    &gt;&gt;&gt; sum_to_n(1)
+    1
+    """
+</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sum_to_n(n: int):
+    return sum(range(n + 1))
+</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>from solution import sum_to_n as candidate 
+def main():
+    assert candidate(1) == 1
+    assert candidate(6) == 21
+    assert candidate(11) == 66
+    assert candidate(30) == 465
+    assert candidate(100) == 5050
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def correct_bracketing(brackets: str):
+    """ brackets is a string of "(" and ")".
+    return True if every opening bracket has a corresponding closing bracket.
+    &gt;&gt;&gt; correct_bracketing("(")
+    False
+    &gt;&gt;&gt; correct_bracketing("()")
+    True
+    &gt;&gt;&gt; correct_bracketing("(()())")
+    True
+    &gt;&gt;&gt; correct_bracketing(")(()")
+    False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def correct_bracketing(brackets: str):
+    depth = 0
+    for b in brackets:
+        if b == "(":
+            depth += 1
+        else:
+            depth -= 1
+        if depth &lt; 0:
+            return False
+    return depth == 0
+</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>from solution import correct_bracketing as candidate 
+def main():
+    assert candidate("()")
+    assert candidate("(()())")
+    assert candidate("()()(()())()")
+    assert candidate("()()((()()())())(()()(()))")
+    assert not candidate("((()())))")
+    assert not candidate(")(()")
+    assert not candidate("(")
+    assert not candidate("((((")
+    assert not candidate(")")
+    assert not candidate("(()")
+    assert not candidate("()()(()())())(()")
+    assert not candidate("()()(()())()))()")
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def derivative(xs: list):
+    """ xs represent coefficients of a polynomial.
+    xs[0] + xs[1] * x + xs[2] * x^2 + ....
+     Return derivative of this polynomial in the same form.
+    &gt;&gt;&gt; derivative([3, 1, 2, 4, 5])
+    [1, 4, 12, 20]
+    &gt;&gt;&gt; derivative([1, 2, 3])
+    [2, 6]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def derivative(xs: list):
+    return [(i * x) for i, x in enumerate(xs)][1:]
+</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>from solution import derivative as candidate 
+def main():
+    assert candidate([3, 1, 2, 4, 5]) == [1, 4, 12, 20]
+    assert candidate([1, 2, 3]) == [2, 6]
+    assert candidate([3, 2, 1]) == [2, 2]
+    assert candidate([3, 2, 1, 0, 4]) == [2, 2, 0, 16]
+    assert candidate([1]) == []
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fibfib(n: int):
+    """The FibFib number sequence is a sequence similar to the Fibbonacci sequnece that's defined as follows:
+    fibfib(0) == 0
+    fibfib(1) == 0
+    fibfib(2) == 1
+    fibfib(n) == fibfib(n-1) + fibfib(n-2) + fibfib(n-3).
+    Please write a function to efficiently compute the n-th element of the fibfib number sequence.
+    &gt;&gt;&gt; fibfib(1)
+    0
+    &gt;&gt;&gt; fibfib(5)
+    4
+    &gt;&gt;&gt; fibfib(8)
+    24
+    """
+</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fibfib(n: int):
+    if n == 0:
+        return 0
+    if n == 1:
+        return 0
+    if n == 2:
+        return 1
+    return fibfib(n - 1) + fibfib(n - 2) + fibfib(n - 3)
+</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>from solution import fibfib as candidate 
+def main():
+    assert candidate(2) == 1
+    assert candidate(1) == 0
+    assert candidate(5) == 4
+    assert candidate(8) == 24
+    assert candidate(10) == 81
+    assert candidate(12) == 274
+    assert candidate(14) == 927
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+FIX = """
+Add more test cases.
+"""
+def vowels_count(s):
+    """Write a function vowels_count which takes a string representing
+    a word as input and returns the number of vowels in the string.
+    Vowels in this case are 'a', 'e', 'i', 'o', 'u'. Here, 'y' is also a
+    vowel, but only when it is at the end of the given word.
+    Example:
+    &gt;&gt;&gt; vowels_count("abcde")
+    2
+    &gt;&gt;&gt; vowels_count("ACEDY")
+    3
+    """
+</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FIX =
+    vowels = "aeiouAEIOU"
+    n_vowels = sum(c in vowels for c in s)
+    if s[-1] == 'y' or s[-1] == 'Y':
+        n_vowels += 1
+    return n_vowels
+</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>from solution import vowels_count as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("abcde") == 2, "Test 1"
+    assert candidate("Alone") == 3, "Test 2"
+    assert candidate("key") == 2, "Test 3"
+    assert candidate("bye") == 1, "Test 4"
+    assert candidate("keY") == 2, "Test 5"
+    assert candidate("bYe") == 1, "Test 6"
+    assert candidate("ACEDY") == 3, "Test 7"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def circular_shift(x, shift):
+    """Circular shift the digits of the integer x, shift the digits right by shift
+    and return the result as a string.
+    If shift &gt; number of digits, return digits reversed.
+    &gt;&gt;&gt; circular_shift(12, 1)
+    "21"
+    &gt;&gt;&gt; circular_shift(12, 2)
+    "12"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def circular_shift(x, shift):
+    s = str(x)
+    if shift &gt; len(s):
+        return s[::-1]
+    else:
+        return s[len(s) - shift:] + s[:len(s) - shift]
+</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>from solution import circular_shift as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(100, 2) == "001"
+    assert candidate(12, 2) == "12"
+    assert candidate(97, 8) == "79"
+    assert candidate(12, 1) == "21", "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(11, 101) == "11", "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def digitSum(s):
+    """Task
+    Write a function that takes a string as input and returns the sum of the upper characters only'
+    ASCII codes.
+    Examples:
+        digitSum("") =&gt; 0
+        digitSum("abAB") =&gt; 131
+        digitSum("abcCd") =&gt; 67
+        digitSum("helloE") =&gt; 69
+        digitSum("woArBld") =&gt; 131
+        digitSum("aAaaaXa") =&gt; 153
+    """
+</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def digitSum(s):
+    if s == "": return 0
+    return sum(ord(char) if char.isupper() else 0 for char in s)
+</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>from solution import digitSum as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate("") == 0, "Error"
+    assert candidate("abAB") == 131, "Error"
+    assert candidate("abcCd") == 67, "Error"
+    assert candidate("helloE") == 69, "Error"
+    assert candidate("woArBld") == 131, "Error"
+    assert candidate("aAaaaXa") == 153, "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(" How are yOu?") == 151, "Error"
+    assert candidate("You arE Very Smart") == 327, "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fruit_distribution(s,n):
+    """
+    In this task, you will be given a string that represents a number of apples and oranges 
+    that are distributed in a basket of fruit this basket contains 
+    apples, oranges, and mango fruits. Given the string that represents the total number of 
+    the oranges and apples and an integer that represent the total number of the fruits 
+    in the basket return the number of the mango fruits in the basket.
+    for examble:
+    fruit_distribution("5 apples and 6 oranges", 19) -&gt;19 - 5 - 6 = 8
+    fruit_distribution("0 apples and 1 oranges",3) -&gt; 3 - 0 - 1 = 2
+    fruit_distribution("2 apples and 3 oranges", 100) -&gt; 100 - 2 - 3 = 95
+    fruit_distribution("100 apples and 1 oranges",120) -&gt; 120 - 100 - 1 = 19
+    """
+</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fruit_distribution(s,n):
+    lis = list()
+    for i in s.split(' '):
+        if i.isdigit():
+            lis.append(int(i))
+    return n - sum(lis)
+</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>from solution import fruit_distribution as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("5 apples and 6 oranges",19) == 8
+    assert candidate("5 apples and 6 oranges",21) == 10
+    assert candidate("0 apples and 1 oranges",3) == 2
+    assert candidate("1 apples and 0 oranges",3) == 2
+    assert candidate("2 apples and 3 oranges",100) == 95
+    assert candidate("2 apples and 3 oranges",5) == 0
+    assert candidate("1 apples and 100 oranges",120) == 19
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def pluck(arr):
+    """
+    "Given an array representing a branch of a tree that has non-negative integer nodes
+    your task is to pluck one of the nodes and return it.
+    The plucked node should be the node with the smallest even value.
+    If multiple nodes with the same smallest even value are found return the node that has smallest index.
+    The plucked node should be returned in a list, [ smalest_value, its index ],
+    If there are no even values or the given array is empty, return [].
+    Example 1:
+        Input: [4,2,3]
+        Output: [2, 1]
+        Explanation: 2 has the smallest even value, and 2 has the smallest index.
+    Example 2:
+        Input: [1,2,3]
+        Output: [2, 1]
+        Explanation: 2 has the smallest even value, and 2 has the smallest index. 
+    Example 3:
+        Input: []
+        Output: []
+    Example 4:
+        Input: [5, 0, 3, 0, 4, 2]
+        Output: [0, 1]
+        Explanation: 0 is the smallest value, but  there are two zeros,
+                     so we will choose the first zero, which has the smallest index.
+    Constraints:
+        * 1 &lt;= nodes.length &lt;= 10000
+        * 0 &lt;= node.value
+    """
+</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pluck(arr):
+    if(len(arr) == 0): return []
+    evens = list(filter(lambda x: x%2 == 0, arr))
+    if(evens == []): return []
+    return [min(evens), arr.index(min(evens))]
+</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>from solution import pluck as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([4,2,3]) == [2, 1], "Error"
+    assert candidate([1,2,3]) == [2, 1], "Error"
+    assert candidate([]) == [], "Error"
+    assert candidate([5, 0, 3, 0, 4, 2]) == [0, 1], "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([1, 2, 3, 0, 5, 3]) == [0, 3], "Error"
+    assert candidate([5, 4, 8, 4 ,8]) == [4, 1], "Error"
+    assert candidate([7, 6, 7, 1]) == [6, 1], "Error"
+    assert candidate([7, 9, 7, 1]) == [], "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def search(lst):
+    '''
+    You are given a non-empty list of positive integers. Return the greatest integer that is greater than 
+    zero, and has a frequency greater than or equal to the value of the integer itself. 
+    The frequency of an integer is the number of times it appears in the list.
+    If no such a value exist, return -1.
+    Examples:
+        search([4, 1, 2, 2, 3, 1]) == 2
+        search([1, 2, 2, 3, 3, 3, 4, 4, 4]) == 3
+        search([5, 5, 4, 4, 4]) == -1
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pluck(arr):
+    frq = [0] * (max(lst) + 1)
+    for i in lst:
+        frq[i] += 1;
+    ans = -1
+    for i in range(1, len(frq)):
+        if frq[i] &gt;= i:
+            ans = i
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>from solution import search as candidate 
+def main():
+    # manually generated tests
+    assert candidate([5, 5, 5, 5, 1]) == 1
+    assert candidate([4, 1, 4, 1, 4, 4]) == 4
+    assert candidate([3, 3]) == -1
+    assert candidate([8, 8, 8, 8, 8, 8, 8, 8]) == 8
+    assert candidate([2, 3, 3, 2, 2]) == 2
+    # automatically generated tests
+    assert candidate([2, 7, 8, 8, 4, 8, 7, 3, 9, 6, 5, 10, 4, 3, 6, 7, 1, 7, 4, 10, 8, 1]) == 1
+    assert candidate([3, 2, 8, 2]) == 2
+    assert candidate([6, 7, 1, 8, 8, 10, 5, 8, 5, 3, 10]) == 1
+    assert candidate([8, 8, 3, 6, 5, 6, 4]) == -1
+    assert candidate([6, 9, 6, 7, 1, 4, 7, 1, 8, 8, 9, 8, 10, 10, 8, 4, 10, 4, 10, 1, 2, 9, 5, 7, 9]) == 1
+    assert candidate([1, 9, 10, 1, 3]) == 1
+    assert candidate([6, 9, 7, 5, 8, 7, 5, 3, 7, 5, 10, 10, 3, 6, 10, 2, 8, 6, 5, 4, 9, 5, 3, 10]) == 5
+    assert candidate([1]) == 1
+    assert candidate([8, 8, 10, 6, 4, 3, 5, 8, 2, 4, 2, 8, 4, 6, 10, 4, 2, 1, 10, 2, 1, 1, 5]) == 4
+    assert candidate([2, 10, 4, 8, 2, 10, 5, 1, 2, 9, 5, 5, 6, 3, 8, 6, 4, 10]) == 2
+    assert candidate([1, 6, 10, 1, 6, 9, 10, 8, 6, 8, 7, 3]) == 1
+    assert candidate([9, 2, 4, 1, 5, 1, 5, 2, 5, 7, 7, 7, 3, 10, 1, 5, 4, 2, 8, 4, 1, 9, 10, 7, 10, 2, 8, 10, 9, 4]) == 4
+    assert candidate([2, 6, 4, 2, 8, 7, 5, 6, 4, 10, 4, 6, 3, 7, 8, 8, 3, 1, 4, 2, 2, 10, 7]) == 4
+    assert candidate([9, 8, 6, 10, 2, 6, 10, 2, 7, 8, 10, 3, 8, 2, 6, 2, 3, 1]) == 2
+    assert candidate([5, 5, 3, 9, 5, 6, 3, 2, 8, 5, 6, 10, 10, 6, 8, 4, 10, 7, 7, 10, 8]) == -1
+    assert candidate([10]) == -1
+    assert candidate([9, 7, 7, 2, 4, 7, 2, 10, 9, 7, 5, 7, 2]) == 2
+    assert candidate([5, 4, 10, 2, 1, 1, 10, 3, 6, 1, 8]) == 1
+    assert candidate([7, 9, 9, 9, 3, 4, 1, 5, 9, 1, 2, 1, 1, 10, 7, 5, 6, 7, 6, 7, 7, 6]) == 1
+    assert candidate([3, 10, 10, 9, 2]) == -1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def strange_sort_list(lst):
+    '''
+    Given list of integers, return list in strange order.
+    Strange sorting, is when you start with the minimum value,
+    then maximum of the remaining integers, then minimum and so on.
+    Examples:
+    strange_sort_list([1, 2, 3, 4]) == [1, 4, 2, 3]
+    strange_sort_list([5, 5, 5, 5]) == [5, 5, 5, 5]
+    strange_sort_list([]) == []
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pluck(arr):
+    res, switch = [], True
+    while lst:
+        res.append(min(lst) if switch else max(lst))
+        lst.remove(res[-1])
+        switch = not switch
+    return res
+</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>from solution import strange_sort_list as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1, 2, 3, 4]) == [1, 4, 2, 3]
+    assert candidate([5, 6, 7, 8, 9]) == [5, 9, 6, 8, 7]
+    assert candidate([1, 2, 3, 4, 5]) == [1, 5, 2, 4, 3]
+    assert candidate([5, 6, 7, 8, 9, 1]) == [1, 9, 5, 8, 6, 7]
+    assert candidate([5, 5, 5, 5]) == [5, 5, 5, 5]
+    assert candidate([]) == []
+    assert candidate([1,2,3,4,5,6,7,8]) == [1, 8, 2, 7, 3, 6, 4, 5]
+    assert candidate([0,2,2,2,5,5,-5,-5]) == [-5, 5, -5, 5, 0, 2, 2, 2]
+    assert candidate([111111]) == [111111]
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def triangle_area(a, b, c):
+    '''
+    Given the lengths of the three sides of a triangle. Return the area of
+    the triangle rounded to 2 decimal points if the three sides form a valid triangle. 
+    Otherwise return -1
+    Three sides make a valid triangle when the sum of any two sides is greater 
+    than the third side.
+    Example:
+    triangle_area(3, 4, 5) == 6.00
+    triangle_area(1, 2, 10) == -1
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pluck(arr):
+    if a + b &lt;= c or a + c &lt;= b or b + c &lt;= a:
+        return -1 
+    s = (a + b + c)/2    
+    area = (s * (s - a) * (s - b) * (s - c)) ** 0.5
+    area = round(area, 2)
+    return area
+</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>from solution import triangle_area as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(3, 4, 5) == 6.00, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(1, 2, 10) == -1
+    assert candidate(4, 8, 5) == 8.18
+    assert candidate(2, 2, 2) == 1.73
+    assert candidate(1, 2, 3) == -1
+    assert candidate(10, 5, 7) == 16.25
+    assert candidate(2, 6, 3) == -1
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1, 1, 1) == 0.43, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(2, 2, 10) == -1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def will_it_fly(q,w):
+    '''
+    Write a function that returns True if the object q will fly, and False otherwise.
+    The object q will fly if it's balanced (it is a palindromic list) and the sum of its elements is less than or equal the maximum possible weight w.
+    Example:
+    will_it_fly([1, 2], 5) 鉃 False 
+    # 1+2 is less than the maximum possible weight, but it's unbalanced.
+    will_it_fly([3, 2, 3], 1) 鉃 False
+    # it's balanced, but 3+2+3 is more than the maximum possible weight.
+    will_it_fly([3, 2, 3], 9) 鉃 True
+    # 3+2+3 is less than the maximum possible weight, and it's balanced.
+    will_it_fly([3], 5) 鉃 True
+    # 3 is less than the maximum possible weight, and it's balanced.
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def pluck(arr):
+    if sum(q) &gt; w:
+        return False
+    i, j = 0, len(q)-1
+    while i&lt;j:
+        if q[i] != q[j]:
+            return False
+        i+=1
+        j-=1
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>from solution import will_it_fly as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([3, 2, 3], 9) is True
+    assert candidate([1, 2], 5) is False
+    assert candidate([3], 5) is True
+    assert candidate([3, 2, 3], 1) is False
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1, 2, 3], 6) is False
+    assert candidate([5], 5) is True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def smallest_change(arr):
+    """
+    Given an array arr of integers, find the minimum number of elements that
+    need to be changed to make the array palindromic. A palindromic array is an array that
+    is read the same backwards and forwards. In one change, you can change one element to any other element.
+    For example:
+    smallest_change([1,2,3,5,4,7,9,6]) == 4
+    smallest_change([1, 2, 3, 4, 3, 2, 2]) == 1
+    smallest_change([1, 2, 3, 2, 1]) == 0
+    """
+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def smallest_change(arr):
+    ans = 0
+    for i in range(len(arr) // 2):
+        if arr[i] != arr[len(arr) - i - 1]:
+            ans += 1
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>from solution import smallest_change as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,2,3,5,4,7,9,6]) == 4
+    assert candidate([1, 2, 3, 4, 3, 2, 2]) == 1
+    assert candidate([1, 4, 2]) == 1
+    assert candidate([1, 4, 4, 2]) == 1
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1, 2, 3, 2, 1]) == 0
+    assert candidate([3, 1, 1, 3]) == 0
+    assert candidate([1]) == 0
+    assert candidate([0, 1]) == 1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def total_match(lst1, lst2):
+    '''
+    Write a function that accepts two lists of strings and returns the list that has 
+    total number of chars in the all strings of the list less than the other list.
+    if the two lists have the same number of chars, return the first list.
+    Examples
+    total_match([], []) 鉃 []
+    total_match(['hi', 'admin'], ['hI', 'Hi']) 鉃 ['hI', 'Hi']
+    total_match(['hi', 'admin'], ['hi', 'hi', 'admin', 'project']) 鉃 ['hi', 'admin']
+    total_match(['hi', 'admin'], ['hI', 'hi', 'hi']) 鉃 ['hI', 'hi', 'hi']
+    total_match(['4'], ['1', '2', '3', '4', '5']) 鉃 ['4']
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def smallest_change(arr):
+    l1 = 0
+    for st in lst1:
+        l1 += len(st)
+    l2 = 0
+    for st in lst2:
+        l2 += len(st)
+    if l1 &lt;= l2:
+        return lst1
+    else:
+        return lst2
+</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>from solution import total_match as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([], []) == []
+    assert candidate(['hi', 'admin'], ['hi', 'hi']) == ['hi', 'hi']
+    assert candidate(['hi', 'admin'], ['hi', 'hi', 'admin', 'project']) == ['hi', 'admin']
+    assert candidate(['4'], ['1', '2', '3', '4', '5']) == ['4']
+    assert candidate(['hi', 'admin'], ['hI', 'Hi']) == ['hI', 'Hi']
+    assert candidate(['hi', 'admin'], ['hI', 'hi', 'hi']) == ['hI', 'hi', 'hi']
+    assert candidate(['hi', 'admin'], ['hI', 'hi', 'hii']) == ['hi', 'admin']
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([], ['this']) == []
+    assert candidate(['this'], []) == []
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_multiply_prime(a):
+    """Write a function that returns true if the given number is the multiplication of 3 prime numbers
+    and false otherwise.
+    Knowing that (a) is less then 100. 
+    Example:
+    is_multiply_prime(30) == True
+    30 = 2 * 3 * 5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_multiply_prime(a):
+    def is_prime(n):
+        for j in range(2,n):
+            if n%j == 0:
+                return False
+        return True
+    for i in range(2,101):
+        if not is_prime(i): continue
+        for j in range(2,101):
+            if not is_prime(j): continue
+            for k in range(2,101):
+                if not is_prime(k): continue
+                if i*j*k == a: return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>from solution import is_multiply_prime as candidate 
+def main():
+    assert candidate(5) == False
+    assert candidate(30) == True
+    assert candidate(8) == True
+    assert candidate(10) == False
+    assert candidate(125) == True
+    assert candidate(3 * 5 * 7) == True
+    assert candidate(3 * 6 * 7) == False
+    assert candidate(9 * 9 * 9) == False
+    assert candidate(11 * 9 * 9) == False
+    assert candidate(11 * 13 * 7) == True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_simple_power(x, n):
+    """Your task is to write a function that returns true if a number x is a simple
+    power of n and false in other cases.
+    x is a simple power of n if n**int=x
+    For example:
+    is_simple_power(1, 4) =&gt; true
+    is_simple_power(2, 2) =&gt; true
+    is_simple_power(8, 2) =&gt; true
+    is_simple_power(3, 2) =&gt; false
+    is_simple_power(3, 1) =&gt; false
+    is_simple_power(5, 3) =&gt; false
+    """
+</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_simple_power(x, n):
+    if (n == 1): 
+        return (x == 1) 
+    power = 1
+    while (power &lt; x): 
+        power = power * n 
+    return (power == x) 
+</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>from solution import is_simple_power as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(16, 2)== True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(143214, 16)== False, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(4, 2)==True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(9, 3)==True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(16, 4)==True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(24, 2)==False, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(128, 4)==False, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(12, 6)==False, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1, 1)==True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(1, 12)==True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def iscube(a):
+    '''
+    Write a function that takes an integer a and returns True 
+    if this ingeger is a cube of some integer number.
+    Note: you may assume the input is always valid.
+    Examples:
+    iscube(1) ==&gt; True
+    iscube(2) ==&gt; False
+    iscube(-1) ==&gt; True
+    iscube(64) ==&gt; True
+    iscube(0) ==&gt; True
+    iscube(180) ==&gt; False
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_simple_power(x, n):
+    a = abs(a)
+    return int(round(a ** (1. / 3))) ** 3 == a
+</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>from solution import iscube as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(1) == True, "First test error: " + str(candidate(1))
+    assert candidate(2) == False, "Second test error: " + str(candidate(2))
+    assert candidate(-1) == True, "Third test error: " + str(candidate(-1))
+    assert candidate(64) == True, "Fourth test error: " + str(candidate(64))
+    assert candidate(180) == False, "Fifth test error: " + str(candidate(180))
+    assert candidate(1000) == True, "Sixth test error: " + str(candidate(1000))
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(0) == True, "1st edge test error: " + str(candidate(0))
+    assert candidate(1729) == False, "2nd edge test error: " + str(candidate(1728))
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def hex_key(num):
+    """You have been tasked to write a function that receives 
+    a hexadecimal number as a string and counts the number of hexadecimal 
+    digits that are primes (prime number, or a prime, is a natural number 
+    greater than 1 that is not a product of two smaller natural numbers).
+    Hexadecimal digits are 0, 1, 2, 3, 4, 5, 6, 7, 8, 9, A, B, C, D, E, F.
+    Prime numbers are 2, 3, 5, 7, 11, 13, 17,...
+    So you have to determine a number of the following digits: 2, 3, 5, 7, 
+    B (=decimal 11), D (=decimal 13).
+    Note: you may assume the input is always correct or empty string, 
+    and symbols A,B,C,D,E,F are always uppercase.
+    Examples:
+    For num = "AB" the output should be 1.
+    For num = "1077E" the output should be 2.
+    For num = "ABED1A33" the output should be 4.
+    For num = "123456789ABCDEF0" the output should be 6.
+    For num = "2020" the output should be 2.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def hex_key(num):
+    primes = ('2', '3', '5', '7', 'B', 'D')
+    total = 0
+    for i in range(0, len(num)):
+        if num[i] in primes:
+            total += 1
+    return total
+</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>from solution import hex_key as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("AB") == 1, "First test error: " + str(candidate("AB"))      
+    assert candidate("1077E") == 2, "Second test error: " + str(candidate("1077E"))  
+    assert candidate("ABED1A33") == 4, "Third test error: " + str(candidate("ABED1A33"))      
+    assert candidate("2020") == 2, "Fourth test error: " + str(candidate("2020"))  
+    assert candidate("123456789ABCDEF0") == 6, "Fifth test error: " + str(candidate("123456789ABCDEF0"))      
+    assert candidate("112233445566778899AABBCCDDEEFF00") == 12, "Sixth test error: " + str(candidate("112233445566778899AABBCCDDEEFF00"))  
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([]) == 0
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def decimal_to_binary(decimal):
+    """You will be given a number in decimal form and your task is to convert it to
+    binary format. The function should return a string, with each character representing a binary
+    number. Each character in the string will be '0' or '1'.
+    There will be an extra couple of characters 'db' at the beginning and at the end of the string.
+    The extra characters are there to help with the format.
+    Examples:
+    decimal_to_binary(15)   # returns "db1111db"
+    decimal_to_binary(32)   # returns "db100000db"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def decimal_to_binary(decimal):
+    return "db" + bin(decimal)[2:] + "db"
+</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>from solution import decimal_to_binary as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(0) == "db0db"
+    assert candidate(32) == "db100000db"
+    assert candidate(103) == "db1100111db"
+    assert candidate(15) == "db1111db", "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_happy(s):
+    """You are given a string s.
+    Your task is to check if the string is happy or not.
+    A string is happy if its length is at least 3 and every 3 consecutive letters are distinct
+    For example:
+    is_happy(a) =&gt; False
+    is_happy(aa) =&gt; False
+    is_happy(abcd) =&gt; True
+    is_happy(aabb) =&gt; False
+    is_happy(adb) =&gt; True
+    is_happy(xyy) =&gt; False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_happy(s):
+    if len(s) &lt; 3:
+      return False
+    for i in range(len(s) - 2):
+      if s[i] == s[i+1] or s[i+1] == s[i+2] or s[i] == s[i+2]:
+        return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>from solution import is_happy as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("a") == False , "a"
+    assert candidate("aa") == False , "aa"
+    assert candidate("abcd") == True , "abcd"
+    assert candidate("aabb") == False , "aabb"
+    assert candidate("adb") == True , "adb"
+    assert candidate("xyy") == False , "xyy"
+    assert candidate("iopaxpoi") == True , "iopaxpoi"
+    assert candidate("iopaxioi") == False , "iopaxioi"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def numerical_letter_grade(grades):
+    """It is the last week of the semester and the teacher has to give the grades
+    to students. The teacher has been making her own algorithm for grading.
+    The only problem is, she has lost the code she used for grading.
+    She has given you a list of GPAs for some students and you have to write 
+    a function that can output a list of letter grades using the following table:
+             GPA       |    Letter grade
+              4.0                A+
+            &gt; 3.7                A 
+            &gt; 3.3                A- 
+            &gt; 3.0                B+
+            &gt; 2.7                B 
+            &gt; 2.3                B-
+            &gt; 2.0                C+
+            &gt; 1.7                C
+            &gt; 1.3                C-
+            &gt; 1.0                D+ 
+            &gt; 0.7                D 
+            &gt; 0.0                D-
+              0.0                E
+    Example:
+    grade_equation([4.0, 3, 1.7, 2, 3.5]) ==&gt; ['A+', 'B', 'C-', 'C', 'A-']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def numerical_letter_grade(grades):
+    letter_grade = []
+    for gpa in grades:
+        if gpa == 4.0:
+            letter_grade.append("A+")
+        elif gpa &gt; 3.7:
+            letter_grade.append("A")
+        elif gpa &gt; 3.3:
+            letter_grade.append("A-")
+        elif gpa &gt; 3.0:
+            letter_grade.append("B+")
+        elif gpa &gt; 2.7:
+            letter_grade.append("B")
+        elif gpa &gt; 2.3:
+            letter_grade.append("B-")
+        elif gpa &gt; 2.0:
+            letter_grade.append("C+")
+        elif gpa &gt; 1.7:
+            letter_grade.append("C")
+        elif gpa &gt; 1.3:
+            letter_grade.append("C-")
+        elif gpa &gt; 1.0:
+            letter_grade.append("D+")
+        elif gpa &gt; 0.7:
+            letter_grade.append("D")
+        elif gpa &gt; 0.0:
+            letter_grade.append("D-")
+        else:
+            letter_grade.append("E")
+    return letter_grade
+</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>from solution import numerical_letter_grade as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([4.0, 3, 1.7, 2, 3.5]) == ['A+', 'B', 'C-', 'C', 'A-']
+    assert candidate([1.2]) == ['D+']
+    assert candidate([0.5]) == ['D-']
+    assert candidate([0.0]) == ['E']
+    assert candidate([1, 0.3, 1.5, 2.8, 3.3]) == ['D', 'D-', 'C-', 'B', 'B+']
+    assert candidate([0, 0.7]) == ['E', 'D-']
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def prime_length(string):
+    """Write a function that takes a string and returns True if the string
+    length is a prime number or False otherwise
+    Examples
+    prime_length('Hello') == True
+    prime_length('abcdcba') == True
+    prime_length('kittens') == True
+    prime_length('orange') == False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def prime_length(string):
+    l = len(string)
+    if l == 0 or l == 1:
+        return False
+    for i in range(2, l):
+        if l % i == 0:
+            return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>from solution import prime_length as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('Hello') == True
+    assert candidate('abcdcba') == True
+    assert candidate('kittens') == True
+    assert candidate('orange') == False
+    assert candidate('wow') == True
+    assert candidate('world') == True
+    assert candidate('MadaM') == True
+    assert candidate('Wow') == True
+    assert candidate('') == False
+    assert candidate('HI') == True
+    assert candidate('go') == True
+    assert candidate('gogo') == False
+    assert candidate('aaaaaaaaaaaaaaa') == False
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('Madam') == True
+    assert candidate('M') == False
+    assert candidate('0') == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def starts_one_ends(n):
+    """
+    Given a positive integer n, return the count of the numbers of n-digit
+    positive integers that start or end with 1.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def starts_one_ends(n):
+    if n == 1: return 1
+    return 18 * (10 ** (n - 2))
+</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>from solution import starts_one_ends as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(1) == 1
+    assert candidate(2) == 18
+    assert candidate(3) == 180
+    assert candidate(4) == 1800
+    assert candidate(5) == 18000
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def solve(N):
+    """Given a positive integer N, return the total sum of its digits in binary.
+    Example
+        For N = 1000, the sum of digits will be 1 the output should be "1".
+        For N = 150, the sum of digits will be 6 the output should be "110".
+        For N = 147, the sum of digits will be 12 the output should be "1100".
+    Variables:
+        @N integer
+             Constraints: 0 鈮 N 鈮 10000.
+    Output:
+         a string of binary number
+    """
+</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def solve(N):
+    return bin(sum(int(i) for i in str(N)))[2:]
+</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>from solution import solve as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(1000) == "1", "Error"
+    assert candidate(150) == "110", "Error"
+    assert candidate(147) == "1100", "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(333) == "1001", "Error"
+    assert candidate(963) == "10010", "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def add(lst):
+    """Given a non-empty list of integers lst. add the even elements that are at odd indices..
+    Examples:
+        add([4, 2, 6, 7]) ==&gt; 2 
+    """
+</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def add(lst):
+    return sum([lst[i] for i in range(1, len(lst), 2) if lst[i]%2 == 0])
+</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>from solution import add as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([4, 88]) == 88
+    assert candidate([4, 5, 6, 7, 2, 122]) == 122
+    assert candidate([4, 0, 6, 7]) == 0
+    assert candidate([4, 4, 6, 8]) == 12
+    # Check some edge cases that are easy to work out by hand.
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def anti_shuffle(s):
+    """
+    Write a function that takes a string and returns an ordered version of it.
+    Ordered version of string, is a string where all words (separated by space)
+    are replaced by a new word where all the characters arranged in
+    ascending order based on ascii value.
+    Note: You should keep the order of words and blank spaces in the sentence.
+    For example:
+    anti_shuffle('Hi') returns 'Hi'
+    anti_shuffle('hello') returns 'ehllo'
+    anti_shuffle('Hello World!!!') returns 'Hello !!!Wdlor'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def anti_shuffle(s):
+    return ' '.join([''.join(sorted(list(i))) for i in s.split(' ')])
+</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>from solution import anti_shuffle as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('Hi') == 'Hi'
+    assert candidate('hello') == 'ehllo'
+    assert candidate('number') == 'bemnru'
+    assert candidate('abcd') == 'abcd'
+    assert candidate('Hello World!!!') == 'Hello !!!Wdlor'
+    assert candidate('') == ''
+    assert candidate('Hi. My name is Mister Robot. How are you?') == '.Hi My aemn is Meirst .Rboot How aer ?ouy'
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def get_row(lst, x):
+    """
+    You are given a 2 dimensional data, as a nested lists,
+    which is similar to matrix, however, unlike matrices,
+    each row may contain a different number of columns.
+    Given lst, and integer x, find integers x in the list,
+    and return list of tuples, [(x1, y1), (x2, y2) ...] such that
+    each tuple is a coordinate - (row, columns), starting with 0.
+    Sort coordinates initially by rows in ascending order.
+    Also, sort coordinates of the row by columns in descending order.
+    Examples:
+    get_row([
+      [1,2,3,4,5,6],
+      [1,2,3,4,1,6],
+      [1,2,3,4,5,1]
+    ], 1) == [(0, 0), (1, 4), (1, 0), (2, 5), (2, 0)]
+    get_row([], 1) == []
+    get_row([[], [1], [1, 2, 3]], 3) == [(2, 2)]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_row(lst, x):
+    coords = [(i, j) for i in range(len(lst)) for j in range(len(lst[i])) if lst[i][j] == x]
+    return sorted(sorted(coords, key=lambda x: x[1], reverse=True), key=lambda x: x[0])
+</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>from solution import get_row as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([
+        [1,2,3,4,5,6],
+        [1,2,3,4,1,6],
+        [1,2,3,4,5,1]
+    ], 1) == [(0, 0), (1, 4), (1, 0), (2, 5), (2, 0)]
+    assert candidate([
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6]
+    ], 2) == [(0, 1), (1, 1), (2, 1), (3, 1), (4, 1), (5, 1)]
+    assert candidate([
+        [1,2,3,4,5,6],
+        [1,2,3,4,5,6],
+        [1,1,3,4,5,6],
+        [1,2,1,4,5,6],
+        [1,2,3,1,5,6],
+        [1,2,3,4,1,6],
+        [1,2,3,4,5,1]
+    ], 1) == [(0, 0), (1, 0), (2, 1), (2, 0), (3, 2), (3, 0), (4, 3), (4, 0), (5, 4), (5, 0), (6, 5), (6, 0)]
+    assert candidate([], 1) == []
+    assert candidate([[1]], 2) == []
+    assert candidate([[], [1], [1, 2, 3]], 3) == [(2, 2)]
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sort_array(array):
+    """
+    Given an array of non-negative integers, return a copy of the given array after sorting,
+    you will sort the given array in ascending order if the sum( first index value, last index value) is odd,
+    or sort it in descending order if the sum( first index value, last index value) is even.
+    Note:
+    * don't change the given array.
+    Examples:
+    * sort_array([]) =&gt; []
+    * sort_array([5]) =&gt; [5]
+    * sort_array([2, 4, 3, 0, 1, 5]) =&gt; [0, 1, 2, 3, 4, 5]
+    * sort_array([2, 4, 3, 0, 1, 5, 6]) =&gt; [6, 5, 4, 3, 2, 1, 0]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sort_array(array):
+    return [] if len(array) == 0 else sorted(array, reverse= (array[0]+array[-1]) % 2 == 0) 
+</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>from solution import sort_array as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([]) == [], "Error"
+    assert candidate([5]) == [5], "Error"
+    assert candidate([2, 4, 3, 0, 1, 5]) == [0, 1, 2, 3, 4, 5], "Error"
+    assert candidate([2, 4, 3, 0, 1, 5, 6]) == [6, 5, 4, 3, 2, 1, 0], "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([2, 1]) == [1, 2], "Error"
+    assert candidate([15, 42, 87, 32 ,11, 0]) == [0, 11, 15, 32, 42, 87], "Error"
+    assert candidate([21, 14, 23, 11]) == [23, 21, 14, 11], "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def encrypt(s):
+    """Create a function encrypt that takes a string as an argument and
+    returns a string encrypted with the alphabet being rotated. 
+    The alphabet should be rotated in a manner such that the letters 
+    shift down by two multiplied to two places.
+    For example:
+    encrypt('hi') returns 'lm'
+    encrypt('asdfghjkl') returns 'ewhjklnop'
+    encrypt('gf') returns 'kj'
+    encrypt('et') returns 'ix'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def encrypt(s):
+    d = 'abcdefghijklmnopqrstuvwxyz'
+    out = ''
+    for c in s:
+        if c in d:
+            out += d[(d.index(c)+2*2) % 26]
+        else:
+            out += c
+    return out
+</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>from solution import encrypt as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('hi') == 'lm', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('asdfghjkl') == 'ewhjklnop', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('gf') == 'kj', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('et') == 'ix', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('faewfawefaewg')=='jeiajeaijeiak', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('hellomyfriend')=='lippsqcjvmirh', "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate('dxzdlmnilfuhmilufhlihufnmlimnufhlimnufhfucufh')=='hbdhpqrmpjylqmpyjlpmlyjrqpmqryjlpmqryjljygyjl', "This prints if this assert fails 3 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('a')=='e', "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def next_smallest(lst):
+    """
+    You are given a list of integers.
+    Write a function next_smallest() that returns the 2nd smallest element of the list.
+    Return None if there is no such element.
+    next_smallest([1, 2, 3, 4, 5]) == 2
+    next_smallest([5, 1, 4, 3, 2]) == 2
+    next_smallest([]) == None
+    next_smallest([1, 1]) == None
+    """
+</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def next_smallest(lst):
+    lst = sorted(set(lst))
+    return None if len(lst) &lt; 2 else lst[1]
+</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>from solution import next_smallest as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1, 2, 3, 4, 5]) == 2
+    assert candidate([5, 1, 4, 3, 2]) == 2
+    assert candidate([]) == None
+    assert candidate([1, 1]) == None
+    assert candidate([1,1,1,1,0]) == 1
+    assert candidate([1, 0**0]) == None
+    assert candidate([-35, 34, 12, -45]) == -35
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_bored(S):
+    """
+    You'll be given a string of words, and your task is to count the number
+    of boredoms. A boredom is a sentence that starts with the word "I".
+    Sentences are delimited by '.', '?' or '!'.
+    For example:
+    &gt;&gt;&gt; is_bored("Hello world")
+    0
+    &gt;&gt;&gt; is_bored("The sky is blue. The sun is shining. I love this weather")
+    1
+    """
+</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_bored(S):
+    import re
+    sentences = re.split(r'[.?!]\s*', S)
+    return sum(sentence[0:2] == 'I ' for sentence in sentences)
+</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>from solution import is_bored as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("Hello world") == 0, "Test 1"
+    assert candidate("Is the sky blue?") == 0, "Test 2"
+    assert candidate("I love It !") == 1, "Test 3"
+    assert candidate("bIt") == 0, "Test 4"
+    assert candidate("I feel good today. I will be productive. will kill It") == 2, "Test 5"
+    assert candidate("You and I are going for a walk") == 0, "Test 6"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def any_int(x, y, z):
+    '''
+    Create a function that takes 3 numbers.
+    Returns true if one of the numbers is equal to the sum of the other two, and all numbers are integers.
+    Returns false in any other cases.
+    Examples
+    any_int(5, 2, 7) 鉃 True
+    any_int(3, 2, 2) 鉃 False
+    any_int(3, -2, 1) 鉃 True
+    any_int(3.6, -2.2, 2) 鉃 False
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_bored(S):
+    if isinstance(x,int) and isinstance(y,int) and isinstance(z,int):
+        if (x+y==z) or (x+z==y) or (y+z==x):
+            return True
+        return False
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>from solution import any_int as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(2, 3, 1)==True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(2.5, 2, 3)==False, "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate(1.5, 5, 3.5)==False, "This prints if this assert fails 3 (good for debugging!)"
+    assert candidate(2, 6, 2)==False, "This prints if this assert fails 4 (good for debugging!)"
+    assert candidate(4, 2, 2)==True, "This prints if this assert fails 5 (good for debugging!)"
+    assert candidate(2.2, 2.2, 2.2)==False, "This prints if this assert fails 6 (good for debugging!)"
+    assert candidate(-4, 6, 2)==True, "This prints if this assert fails 7 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(2,1,1)==True, "This prints if this assert fails 8 (also good for debugging!)"
+    assert candidate(3,4,7)==True, "This prints if this assert fails 9 (also good for debugging!)"
+    assert candidate(3.0,4,7)==False, "This prints if this assert fails 10 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def encode(message):
+    """
+    Write a function that takes a message, and encodes in such a 
+    way that it swaps case of all letters, replaces all vowels in 
+    the message with the letter that appears 2 places ahead of that 
+    vowel in the english alphabet. 
+    Assume only letters. 
+    Examples:
+    &gt;&gt;&gt; encode('test')
+    'TGST'
+    &gt;&gt;&gt; encode('This is a message')
+    'tHKS KS C MGSSCGG'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def encode(message):
+    vowels = "aeiouAEIOU"
+    vowels_replace = dict([(i, chr(ord(i) + 2)) for i in vowels])
+    message = message.swapcase()
+    return ''.join([vowels_replace[i] if i in vowels else i for i in message])
+</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>from solution import encode as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('TEST') == 'tgst', "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('Mudasir') == 'mWDCSKR', "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate('YES') == 'ygs', "This prints if this assert fails 3 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('This is a message') == 'tHKS KS C MGSSCGG', "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate("I DoNt KnOw WhAt tO WrItE") == 'k dQnT kNqW wHcT Tq wRkTg', "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def skjkasdkd(lst):
+    """You are given a list of integers.
+    You need to find the largest prime value and return the sum of its digits.
+    Examples:
+    For lst = [0,3,2,1,3,5,7,4,5,5,5,2,181,32,4,32,3,2,32,324,4,3] the output should be 10
+    For lst = [1,0,1,8,2,4597,2,1,3,40,1,2,1,2,4,2,5,1] the output should be 25
+    For lst = [1,3,1,32,5107,34,83278,109,163,23,2323,32,30,1,9,3] the output should be 13
+    For lst = [0,724,32,71,99,32,6,0,5,91,83,0,5,6] the output should be 11
+    For lst = [0,81,12,3,1,21] the output should be 3
+    For lst = [0,8,1,2,1,7] the output should be 7
+    """
+</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def skjkasdkd(lst):
+    def isPrime(n):
+        for i in range(2,int(n**0.5)+1):
+            if n%i==0:
+                return False
+        return True
+    maxx = 0
+    i = 0
+    while i &lt; len(lst):
+        if(lst[i] &gt; maxx and isPrime(lst[i])):
+            maxx = lst[i]
+        i+=1
+    result = sum(int(digit) for digit in str(maxx))
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>from solution import skjkasdkd as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([0,3,2,1,3,5,7,4,5,5,5,2,181,32,4,32,3,2,32,324,4,3]) == 10, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1,0,1,8,2,4597,2,1,3,40,1,2,1,2,4,2,5,1]) == 25, "This prints if this assert fails 2 (also good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1,3,1,32,5107,34,83278,109,163,23,2323,32,30,1,9,3]) == 13, "This prints if this assert fails 3 (also good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([0,724,32,71,99,32,6,0,5,91,83,0,5,6]) == 11, "This prints if this assert fails 4 (also good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([0,81,12,3,1,21]) == 3, "This prints if this assert fails 5 (also good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([0,8,1,2,1,7]) == 7, "This prints if this assert fails 6 (also good for debugging!)"
+    assert candidate([8191]) == 19, "This prints if this assert fails 7 (also good for debugging!)"
+    assert candidate([8191, 123456, 127, 7]) == 19, "This prints if this assert fails 8 (also good for debugging!)"
+    assert candidate([127, 97, 8192]) == 10, "This prints if this assert fails 9 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def check_dict_case(dict):
+    """
+    Given a dictionary, return True if all keys are strings in lower 
+    case or all keys are strings in upper case, else return False.
+    The function should return False is the given dictionary is empty.
+    Examples:
+    check_dict_case({"a":"apple", "b":"banana"}) should return True.
+    check_dict_case({"a":"apple", "A":"banana", "B":"banana"}) should return False.
+    check_dict_case({"a":"apple", 8:"banana", "a":"apple"}) should return False.
+    check_dict_case({"Name":"John", "Age":"36", "City":"Houston"}) should return False.
+    check_dict_case({"STATE":"NC", "ZIP":"12345" }) should return True.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def check_dict_case(dict):
+    if len(dict.keys()) == 0:
+        return False
+    else:
+        state = "start"
+        for key in dict.keys():
+            if isinstance(key, str) == False:
+                state = "mixed"
+                break
+            if state == "start":
+                if key.isupper():
+                    state = "upper"
+                elif key.islower():
+                    state = "lower"
+                else:
+                    break
+            elif (state == "upper" and not key.isupper()) or (state == "lower" and not key.islower()):
+                    state = "mixed"
+                    break
+            else:
+                break
+        return state == "upper" or state == "lower" 
+</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>from solution import check_dict_case as candidate 
+def main():
+    # Check some simple cases
+    assert candidate({"p":"pineapple", "b":"banana"}) == True, "First test error: " + str(candidate({"p":"pineapple", "b":"banana"}))
+    assert candidate({"p":"pineapple", "A":"banana", "B":"banana"}) == False, "Second test error: " + str(candidate({"p":"pineapple", "A":"banana", "B":"banana"}))
+    assert candidate({"p":"pineapple", 5:"banana", "a":"apple"}) == False, "Third test error: " + str(candidate({"p":"pineapple", 5:"banana", "a":"apple"}))
+    assert candidate({"Name":"John", "Age":"36", "City":"Houston"}) == False, "Fourth test error: " + str(candidate({"Name":"John", "Age":"36", "City":"Houston"}))
+    assert candidate({"STATE":"NC", "ZIP":"12345" }) == True, "Fifth test error: " + str(candidate({"STATE":"NC", "ZIP":"12345" }))      
+    assert candidate({"fruit":"Orange", "taste":"Sweet" }) == True, "Fourth test error: " + str(candidate({"fruit":"Orange", "taste":"Sweet" }))      
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate({}) == False, "1st edge test error: " + str(candidate({}))
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def count_up_to(n):
+    """Implement a function that takes an non-negative integer and returns an array of the first n
+    integers that are prime numbers and less than n.
+    for example:
+    count_up_to(5) =&gt; [2,3]
+    count_up_to(11) =&gt; [2,3,5,7]
+    count_up_to(0) =&gt; []
+    count_up_to(20) =&gt; [2,3,5,7,11,13,17,19]
+    count_up_to(1) =&gt; []
+    count_up_to(18) =&gt; [2,3,5,7,11,13,17]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def count_up_to(n):
+    primes = []
+    for i in range(2, n):
+        is_prime = True
+        for j in range(2, i):
+            if i % j == 0:
+                is_prime = False
+                break
+        if is_prime:
+            primes.append(i)
+    return primes
+</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>from solution import count_up_to as candidate 
+def main():
+    assert candidate(5) == [2,3]
+    assert candidate(6) == [2,3,5]
+    assert candidate(7) == [2,3,5]
+    assert candidate(10) == [2,3,5,7]
+    assert candidate(0) == []
+    assert candidate(22) == [2,3,5,7,11,13,17,19]
+    assert candidate(1) == []
+    assert candidate(18) == [2,3,5,7,11,13,17]
+    assert candidate(47) == [2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43]
+    assert candidate(101) == [2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71, 73, 79, 83, 89, 97]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def multiply(a, b):
+    """Complete the function that takes two integers and returns 
+    the product of their unit digits.
+    Assume the input is always valid.
+    Examples:
+    multiply(148, 412) should return 16.
+    multiply(19, 28) should return 72.
+    multiply(2020, 1851) should return 0.
+    multiply(14,-15) should return 20.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def multiply(a, b):
+    return abs(a % 10) * abs(b % 10)
+</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>from solution import multiply as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(148, 412) == 16, "First test error: " + str(candidate(148, 412))                    
+    assert candidate(19, 28) == 72, "Second test error: " + str(candidate(19, 28))           
+    assert candidate(2020, 1851) == 0, "Third test error: " + str(candidate(2020, 1851))
+    assert candidate(14,-15) == 20, "Fourth test error: " + str(candidate(14,-15))      
+    assert candidate(76, 67) == 42, "Fifth test error: " + str(candidate(76, 67))      
+    assert candidate(17, 27) == 49, "Sixth test error: " + str(candidate(17, 27))      
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(0, 1) == 0, "1st edge test error: " + str(candidate(0, 1))
+    assert candidate(0, 0) == 0, "2nd edge test error: " + str(candidate(0, 0))
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def count_upper(s):
+    """
+    Given a string s, count the number of uppercase vowels in even indices.
+    For example:
+    count_upper('aBCdEf') returns 1
+    count_upper('abcdefg') returns 0
+    count_upper('dBBE') returns 0
+    """
+</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def count_upper(s):
+    count = 0
+    for i in range(0,len(s),2):
+        if s[i] in "AEIOU":
+            count += 1
+    return count
+</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>from solution import count_upper as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('aBCdEf')  == 1
+    assert candidate('abcdefg') == 0
+    assert candidate('dBBE') == 0
+    assert candidate('B')  == 0
+    assert candidate('U')  == 1
+    assert candidate('') == 0
+    assert candidate('EEEE') == 2
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def closest_integer(value):
+    '''
+    Create a function that takes a value (string) representing a number
+    and returns the closest integer to it. If the number is equidistant
+    from two integers, round it away from zero.
+    Examples
+    &gt;&gt;&gt; closest_integer("10")
+    10
+    &gt;&gt;&gt; closest_integer("15.3")
+    15
+    Note:
+    Rounding away from zero means that if the given number is equidistant
+    from two integers, the one you should return is the one that is the
+    farthest from zero. For example closest_integer("14.5") should
+    return 15 and closest_integer("-14.5") should return -15.
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def count_upper(s):
+    from math import floor, ceil
+    if value.count('.') == 1:
+        # remove trailing zeros
+        while (value[-1] == '0'):
+            value = value[:-1]
+    num = float(value)
+    if value[-2:] == '.5':
+        if num &gt; 0:
+            res = ceil(num)
+        else:
+            res = floor(num)
+    elif len(value) &gt; 0:
+        res = int(round(num))
+    else:
+        res = 0
+    return res
+</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>from solution import closest_integer as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("10") == 10, "Test 1"
+    assert candidate("14.5") == 15, "Test 2"
+    assert candidate("-15.5") == -16, "Test 3"
+    assert candidate("15.3") == 15, "Test 3"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("0") == 0, "Test 0"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def make_a_pile(n):
+    """
+    Given a positive integer n, you have to make a pile of n levels of stones.
+    The first level has n stones.
+    The number of stones in the next level is:
+        - the next odd number if n is odd.
+        - the next even number if n is even.
+    Return the number of stones in each level in a list, where element at index
+    i represents the number of stones in the level (i+1).
+    Examples:
+    &gt;&gt;&gt; make_a_pile(3)
+    [3, 5, 7]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def make_a_pile(n):
+    return [n + 2*i for i in range(n)]
+</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>from solution import make_a_pile as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(3) == [3, 5, 7], "Test 3"
+    assert candidate(4) == [4,6,8,10], "Test 4"
+    assert candidate(5) == [5, 7, 9, 11, 13]
+    assert candidate(6) == [6, 8, 10, 12, 14, 16]
+    assert candidate(8) == [8, 10, 12, 14, 16, 18, 20, 22]
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def words_string(s):
+    """
+    You will be given a string of words separated by commas or spaces. Your task is
+    to split the string into words and return an array of the words.
+    For example:
+    words_string("Hi, my name is John") == ["Hi", "my", "name", "is", "John"]
+    words_string("One, two, three, four, five, six") == ["One", "two", "three", "four", "five", "six"]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def words_string(s):
+    if not s:
+        return []
+    s_list = []
+    for letter in s:
+        if letter == ',':
+            s_list.append(' ')
+        else:
+            s_list.append(letter)
+    s_list = "".join(s_list)
+    return s_list.split()
+</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>from solution import words_string as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate("Hi, my name is John") == ["Hi", "my", "name", "is", "John"]
+    assert candidate("One, two, three, four, five, six") == ["One", "two", "three", "four", "five", "six"]
+    assert candidate("Hi, my name") == ["Hi", "my", "name"]
+    assert candidate("One,, two, three, four, five, six,") == ["One", "two", "three", "four", "five", "six"]
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate("") == []
+    assert candidate("ahmed     , gamal") == ["ahmed", "gamal"]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def choose_num(x, y):
+    """This function takes two positive numbers x and y and returns the
+    biggest even integer number that is in the range [x, y] inclusive. If 
+    there's no such number, then the function should return -1.
+    For example:
+    choose_num(12, 15) = 14
+    choose_num(13, 12) = -1
+    """
+</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def choose_num(x, y):
+    if x &gt; y:
+        return -1
+    if y % 2 == 0:
+        return y
+    if x == y:
+        return -1
+    return y - 1
+</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>from solution import choose_num as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(12, 15) == 14
+    assert candidate(13, 12) == -1
+    assert candidate(33, 12354) == 12354
+    assert candidate(5234, 5233) == -1
+    assert candidate(6, 29) == 28
+    assert candidate(27, 10) == -1
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(7, 7) == -1
+    assert candidate(546, 546) == 546
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def rounded_avg(n, m):
+    """You are given two positive integers n and m, and your task is to compute the
+    average of the integers from n through m (including n and m). 
+    Round the answer to the nearest integer and convert that to binary.
+    If n is greater than m, return -1.
+    Example:
+    rounded_avg(1, 5) =&gt; "0b11"
+    rounded_avg(7, 5) =&gt; -1
+    rounded_avg(10, 20) =&gt; "0b1111"
+    rounded_avg(20, 33) =&gt; "0b11010"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def rounded_avg(n, m):
+    if m &lt; n:
+        return -1
+    summation = 0
+    for i in range(n, m+1):
+        summation += i
+    return bin(round(summation/(m - n + 1)))
+</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>from solution import rounded_avg as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(1, 5) == "0b11"
+    assert candidate(7, 13) == "0b1010"
+    assert candidate(964,977) == "0b1111001010"
+    assert candidate(996,997) == "0b1111100100"
+    assert candidate(560,851) == "0b1011000010"
+    assert candidate(185,546) == "0b101101110"
+    assert candidate(362,496) == "0b110101101"
+    assert candidate(350,902) == "0b1001110010"
+    assert candidate(197,233) == "0b11010111"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(7, 5) == -1
+    assert candidate(5, 1) == -1
+    assert candidate(5, 5) == "0b101"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def unique_digits(x):
+    """Given a list of positive integers x. return a sorted list of all 
+    elements that hasn't any even digit.
+    Note: Returned list should be sorted in increasing order.
+    For example:
+    &gt;&gt;&gt; unique_digits([15, 33, 1422, 1])
+    [1, 15, 33]
+    &gt;&gt;&gt; unique_digits([152, 323, 1422, 10])
+    []
+    """
+</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def unique_digits(x):
+    odd_digit_elements = []
+    for i in x:
+        if all (int(c) % 2 == 1 for c in str(i)):
+            odd_digit_elements.append(i)
+    return sorted(odd_digit_elements)
+</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>from solution import unique_digits as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([15, 33, 1422, 1]) == [1, 15, 33]
+    assert candidate([152, 323, 1422, 10]) == []
+    assert candidate([12345, 2033, 111, 151]) == [111, 151]
+    assert candidate([135, 103, 31]) == [31, 135]
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def by_length(arr):
+    """
+    Given an array of integers, sort the integers that are between 1 and 9 inclusive,
+    reverse the resulting array, and then replace each digit by its corresponding name from
+    "One", "Two", "Three", "Four", "Five", "Six", "Seven", "Eight", "Nine".
+    For example:
+      arr = [2, 1, 1, 4, 5, 8, 2, 3]   
+            -&gt; sort arr -&gt; [1, 1, 2, 2, 3, 4, 5, 8] 
+            -&gt; reverse arr -&gt; [8, 5, 4, 3, 2, 2, 1, 1]
+      return ["Eight", "Five", "Four", "Three", "Two", "Two", "One", "One"]
+      If the array is empty, return an empty array:
+      arr = []
+      return []
+      If the array has any strange number ignore it:
+      arr = [1, -1 , 55] 
+            -&gt; sort arr -&gt; [-1, 1, 55]
+            -&gt; reverse arr -&gt; [55, 1, -1]
+      return = ['One']
+    """
+</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def by_length(arr):
+    dic = {
+        1: "One",
+        2: "Two",
+        3: "Three",
+        4: "Four",
+        5: "Five",
+        6: "Six",
+        7: "Seven",
+        8: "Eight",
+        9: "Nine",
+    }
+    sorted_arr = sorted(arr, reverse=True)
+    new_arr = []
+    for var in sorted_arr:
+        try:
+            new_arr.append(dic[var])
+        except:
+            pass
+    return new_arr
+</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>from solution import by_length as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([2, 1, 1, 4, 5, 8, 2, 3]) == ["Eight", "Five", "Four", "Three", "Two", "Two", "One", "One"], "Error"
+    assert candidate([]) == [], "Error"
+    assert candidate([1, -1 , 55]) == ['One'], "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([1, -1, 3, 2]) == ["Three", "Two", "One"]
+    assert candidate([9, 4, 8]) == ["Nine", "Eight", "Four"]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def f(n):
+    """ Implement the function f that takes n as a parameter,
+    and returns a list of size n, such that the value of the element at index i is the factorial of i if i is even
+    or the sum of numbers from 1 to i otherwise.
+    i starts from 1.
+    the factorial of i is the multiplication of the numbers from 1 to i (1 * 2 * ... * i).
+    Example:
+    f(5) == [1, 2, 6, 24, 15]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def f(n):
+    ret = []
+    for i in range(1,n+1):
+        if i%2 == 0:
+            x = 1
+            for j in range(1,i+1): x *= j
+            ret += [x]
+        else:
+            x = 0
+            for j in range(1,i+1): x += j
+            ret += [x]
+    return ret
+</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>from solution import f as candidate 
+def main():
+    assert candidate(5) == [1, 2, 6, 24, 15]
+    assert candidate(7) == [1, 2, 6, 24, 15, 720, 28]
+    assert candidate(1) == [1]
+    assert candidate(3) == [1, 2, 6]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def even_odd_palindrome(n):
+    """
+    Given a positive integer n, return a tuple that has the number of even and odd
+    integer palindromes that fall within the range(1, n), inclusive.
+    Example 1:
+        Input: 3
+        Output: (1, 2)
+        Explanation:
+        Integer palindrome are 1, 2, 3. one of them is even, and two of them are odd.
+    Example 2:
+        Input: 12
+        Output: (4, 6)
+        Explanation:
+        Integer palindrome are 1, 2, 3, 4, 5, 6, 7, 8, 9, 11. four of them are even, and 6 of them are odd.
+    Note:
+        1. 1 &lt;= n &lt;= 10^3
+        2. returned tuple has the number of even and odd integer palindromes respectively.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def even_odd_palindrome(n):
+    def is_palindrome(n):
+        return str(n) == str(n)[::-1]
+    even_palindrome_count = 0
+    odd_palindrome_count = 0
+    for i in range(1, n+1):
+        if i%2 == 1 and is_palindrome(i):
+                odd_palindrome_count += 1
+        elif i%2 == 0 and is_palindrome(i):
+            even_palindrome_count += 1
+    return (even_palindrome_count, odd_palindrome_count)
+</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>from solution import even_odd_palindrome as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(123) == (8, 13)
+    assert candidate(12) == (4, 6)
+    assert candidate(3) == (1, 2)
+    assert candidate(63) == (6, 8)
+    assert candidate(25) == (5, 6)
+    assert candidate(19) == (4, 6)
+    assert candidate(9) == (4, 5), "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1) == (0, 1), "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def count_nums(arr):
+    """
+    Write a function count_nums which takes an array of integers and returns
+    the number of elements which has a sum of digits &gt; 0.
+    If a number is negative, then its first signed digit will be negative:
+    e.g. -123 has signed digits -1, 2, and 3.
+    &gt;&gt;&gt; count_nums([]) == 0
+    &gt;&gt;&gt; count_nums([-1, 11, -11]) == 1
+    &gt;&gt;&gt; count_nums([1, 1, 2]) == 3
+    """
+</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def count_nums(arr):
+    def digits_sum(n):
+        neg = 1
+        if n &lt; 0: n, neg = -1 * n, -1 
+        n = [int(i) for i in str(n)]
+        n[0] = n[0] * neg
+        return sum(n)
+    return len(list(filter(lambda x: x &gt; 0, [digits_sum(i) for i in arr])))
+</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>from solution import count_nums as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([]) == 0
+    assert candidate([-1, -2, 0]) == 0
+    assert candidate([1, 1, 2, -2, 3, 4, 5]) == 6
+    assert candidate([1, 6, 9, -6, 0, 1, 5]) == 5
+    assert candidate([1, 100, 98, -7, 1, -1]) == 4
+    assert candidate([12, 23, 34, -45, -56, 0]) == 5
+    assert candidate([-0, 1**0]) == 1
+    assert candidate([1]) == 1
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def move_one_ball(arr):
+    """We have an array 'arr' of N integers arr[1], arr[2], ..., arr[N].The
+    numbers in the array will be randomly ordered. Your task is to determine if
+    it is possible to get an array sorted in non-decreasing order by performing 
+    the following operation on the given array:
+        You are allowed to perform right shift operation any number of times.
+    One right shift operation means shifting all elements of the array by one
+    position in the right direction. The last element of the array will be moved to
+    the starting position in the array i.e. 0th index. 
+    If it is possible to obtain the sorted array by performing the above operation
+    then return True else return False.
+    If the given array is empty then return True.
+    Note: The given list is guaranteed to have unique elements.
+    For Example:
+    move_one_ball([3, 4, 5, 1, 2])==&gt;True
+    Explanation: By performin 2 right shift operations, non-decreasing order can
+                 be achieved for the given array.
+    move_one_ball([3, 5, 4, 1, 2])==&gt;False
+    Explanation:It is not possible to get non-decreasing order for the given
+                array by performing any number of right shift operations.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def move_one_ball(arr):
+    if len(arr)==0:
+      return True
+    sorted_array=sorted(arr)
+    my_arr=[]
+    min_value=min(arr)
+    min_index=arr.index(min_value)
+    my_arr=arr[min_index:]+arr[0:min_index]
+    for i in range(len(arr)):
+      if my_arr[i]!=sorted_array[i]:
+        return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>from solution import move_one_ball as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([3, 4, 5, 1, 2])==True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([3, 5, 10, 1, 2])==True
+    assert candidate([4, 3, 1, 2])==False
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([3, 5, 4, 1, 2])==False, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([])==True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def exchange(lst1, lst2):
+    """In this problem, you will implement a function that takes two lists of numbers,
+    and determines whether it is possible to perform an exchange of elements
+    between them to make lst1 a list of only even numbers.
+    There is no limit on the number of exchanged elements between lst1 and lst2.
+    If it is possible to exchange elements between the lst1 and lst2 to make
+    all the elements of lst1 to be even, return "YES".
+    Otherwise, return "NO".
+    For example:
+    exchange([1, 2, 3, 4], [1, 2, 3, 4]) =&gt; "YES"
+    exchange([1, 2, 3, 4], [1, 5, 3, 4]) =&gt; "NO"
+    It is assumed that the input lists will be non-empty.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def exchange(lst1, lst2):
+    odd = 0
+    even = 0
+    for i in lst1:
+        if i%2 == 1:
+            odd += 1
+    for i in lst2:
+        if i%2 == 0:
+            even += 1
+    if even &gt;= odd:
+        return "YES"
+    return "NO"
+</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>from solution import exchange as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1, 2, 3, 4], [1, 2, 3, 4]) == "YES"
+    assert candidate([1, 2, 3, 4], [1, 5, 3, 4]) == "NO"
+    assert candidate([1, 2, 3, 4], [2, 1, 4, 3]) == "YES" 
+    assert candidate([5, 7, 3], [2, 6, 4]) == "YES"
+    assert candidate([5, 7, 3], [2, 6, 3]) == "NO" 
+    assert candidate([3, 2, 6, 1, 8, 9], [3, 5, 5, 1, 1, 1]) == "NO"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([100, 200], [200, 200]) == "YES"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def histogram(test):
+    """Given a string representing a space separated lowercase letters, return a dictionary
+    of the letter with the most repetition and containing the corresponding count.
+    If several letters have the same occurrence, return all of them.
+    Example:
+    histogram('a b c') == {'a': 1, 'b': 1, 'c': 1}
+    histogram('a b b a') == {'a': 2, 'b': 2}
+    histogram('a b c a b') == {'a': 2, 'b': 2}
+    histogram('b b b b a') == {'b': 4}
+    histogram('') == {}
+    """
+</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def histogram(test):
+    dict1={}
+    list1=test.split(" ")
+    t=0
+    for i in list1:
+        if(list1.count(i)&gt;t) and i!='':
+            t=list1.count(i)
+    if t&gt;0:
+        for i in list1:
+            if(list1.count(i)==t):
+                dict1[i]=t
+    return dict1
+</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>from solution import histogram as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('a b b a') == {'a':2,'b': 2}, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('a b c a b') == {'a': 2, 'b': 2}, "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate('a b c d g') == {'a': 1, 'b': 1, 'c': 1, 'd': 1, 'g': 1}, "This prints if this assert fails 3 (good for debugging!)"
+    assert candidate('r t g') == {'r': 1,'t': 1,'g': 1}, "This prints if this assert fails 4 (good for debugging!)"
+    assert candidate('b b b b a') == {'b': 4}, "This prints if this assert fails 5 (good for debugging!)"
+    assert candidate('r t g') == {'r': 1,'t': 1,'g': 1}, "This prints if this assert fails 6 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('') == {}, "This prints if this assert fails 7 (also good for debugging!)"
+    assert candidate('a') == {'a': 1}, "This prints if this assert fails 8 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def reverse_delete(s,c):
+    """Task
+    We are given two strings s and c, you have to deleted all the characters in s that are equal to any character in c
+    then check if the result string is palindrome.
+    A string is called palindrome if it reads the same backward as forward.
+    You should return a tuple containing the result string and True/False for the check.
+    Example
+    For s = "abcde", c = "ae", the result should be ('bcd',False)
+    For s = "abcdef", c = "b"  the result should be ('acdef',False)
+    For s = "abcdedcba", c = "ab", the result should be ('cdedc',True)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def reverse_delete(s,c):
+    s = ''.join([char for char in s if char not in c])
+    return (s,s[::-1] == s)
+</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>from solution import reverse_delete as candidate 
+def main():
+    assert candidate("abcde","ae") == ('bcd',False)
+    assert candidate("abcdef", "b") == ('acdef',False)
+    assert candidate("abcdedcba","ab") == ('cdedc',True)
+    assert candidate("dwik","w") == ('dik',False)
+    assert candidate("a","a") == ('',True)
+    assert candidate("abcdedcba","") == ('abcdedcba',True)
+    assert candidate("abcdedcba","v") == ('abcdedcba',True)
+    assert candidate("vabba","v") == ('abba',True)
+    assert candidate("mamma", "mia") == ("", True)
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def odd_count(lst):
+    """Given a list of strings, where each string consists of only digits, return a list.
+    Each element i of the output should be "the number of odd elements in the
+    string i of the input." where all the i's should be replaced by the number
+    of odd digits in the i'th string of the input.
+    &gt;&gt;&gt; odd_count(['1234567'])
+    ["the number of odd elements 4n the str4ng 4 of the 4nput."]
+    &gt;&gt;&gt; odd_count(['3',"11111111"])
+    ["the number of odd elements 1n the str1ng 1 of the 1nput.",
+     "the number of odd elements 8n the str8ng 8 of the 8nput."]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def odd_count(lst):
+    res = []
+    for arr in lst:
+        n = sum(int(d)%2==1 for d in arr)
+        res.append("the number of odd elements " + str(n) + "n the str"+ str(n) +"ng "+ str(n) +" of the "+ str(n) +"nput.")
+    return res
+</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>from solution import odd_count as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(['1234567']) == ["the number of odd elements 4n the str4ng 4 of the 4nput."], "Test 1"
+    assert candidate(['3',"11111111"]) == ["the number of odd elements 1n the str1ng 1 of the 1nput.", "the number of odd elements 8n the str8ng 8 of the 8nput."], "Test 2"
+    assert candidate(['271', '137', '314']) == [
+        'the number of odd elements 2n the str2ng 2 of the 2nput.',
+        'the number of odd elements 3n the str3ng 3 of the 3nput.',
+        'the number of odd elements 2n the str2ng 2 of the 2nput.'
+    ]
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def minSubArraySum(nums):
+    """
+    Given an array of integers nums, find the minimum sum of any non-empty sub-array
+    of nums.
+    Example
+    minSubArraySum([2, 3, 4, 1, 2, 4]) == 1
+    minSubArraySum([-1, -2, -3]) == -6
+    """
+</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def minSubArraySum(nums):
+    max_sum = 0
+    s = 0
+    for num in nums:
+        s += -num
+        if (s &lt; 0):
+            s = 0
+        max_sum = max(s, max_sum)
+    if max_sum == 0:
+        max_sum = max(-i for i in nums)
+    min_sum = -max_sum
+    return min_sum
+</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>from solution import minSubArraySum as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([2, 3, 4, 1, 2, 4]) == 1, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([-1, -2, -3]) == -6
+    assert candidate([-1, -2, -3, 2, -10]) == -14
+    assert candidate([-9999999999999999]) == -9999999999999999
+    assert candidate([0, 10, 20, 1000000]) == 0
+    assert candidate([-1, -2, -3, 10, -5]) == -6
+    assert candidate([100, -1, -2, -3, 10, -5]) == -6
+    assert candidate([10, 11, 13, 8, 3, 4]) == 3
+    assert candidate([100, -33, 32, -1, 0, -2]) == -33
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([-10]) == -10, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([7]) == 7
+    assert candidate([1, -1]) == -1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def max_fill(grid, capacity):
+    import math
+    """
+    You are given a rectangular grid of wells. Each row represents a single well,
+    and each 1 in a row represents a single unit of water.
+    Each well has a corresponding bucket that can be used to extract water from it, 
+    and all buckets have the same capacity.
+    Your task is to use the buckets to empty the wells.
+    Output the number of times you need to lower the buckets.
+    Example 1:
+        Input: 
+            grid : [[0,0,1,0], [0,1,0,0], [1,1,1,1]]
+            bucket_capacity : 1
+        Output: 6
+    Example 2:
+        Input: 
+            grid : [[0,0,1,1], [0,0,0,0], [1,1,1,1], [0,1,1,1]]
+            bucket_capacity : 2
+        Output: 5
+    Example 3:
+        Input: 
+            grid : [[0,0,0], [0,0,0]]
+            bucket_capacity : 5
+        Output: 0
+    Constraints:
+        * all wells have the same length
+        * 1 &lt;= grid.length &lt;= 10^2
+        * 1 &lt;= grid[:,1].length &lt;= 10^2
+        * grid[i][j] -&gt; 0 | 1
+        * 1 &lt;= capacity &lt;= 10
+    """
+</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def max_fill(grid, capacity):
+    import math
+    return sum([math.ceil(sum(arr)/capacity) for arr in grid])
+</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>from solution import max_fill as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([[0,0,1,0], [0,1,0,0], [1,1,1,1]], 1) == 6, "Error"
+    assert candidate([[0,0,1,1], [0,0,0,0], [1,1,1,1], [0,1,1,1]], 2) == 5, "Error"
+    assert candidate([[0,0,0], [0,0,0]], 5) == 0, "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([[1,1,1,1], [1,1,1,1]], 2) == 4, "Error"
+    assert candidate([[1,1,1,1], [1,1,1,1]], 9) == 2, "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sort_array(arr):
+    """
+    In this Kata, you have to sort an array of non-negative integers according to
+    number of ones in their binary representation in ascending order.
+    For similar number of ones, sort based on decimal value.
+    It must be implemented like this:
+    &gt;&gt;&gt; sort_array([1, 5, 2, 3, 4]) == [1, 2, 3, 4, 5]
+    &gt;&gt;&gt; sort_array([-2, -3, -4, -5, -6]) == [-6, -5, -4, -3, -2]
+    &gt;&gt;&gt; sort_array([1, 0, 2, 3, 4]) [0, 1, 2, 3, 4]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sort_array(arr):
+    return sorted(sorted(arr), key=lambda x: bin(x)[2:].count('1'))
+</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>from solution import sort_array as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1,5,2,3,4]) == [1, 2, 4, 3, 5]
+    assert candidate([-2,-3,-4,-5,-6]) == [-4, -2, -6, -5, -3]
+    assert candidate([1,0,2,3,4]) == [0, 1, 2, 4, 3]
+    assert candidate([]) == []
+    assert candidate([2,5,77,4,5,3,5,7,2,3,4]) == [2, 2, 4, 4, 3, 3, 5, 5, 5, 7, 77]
+    assert candidate([3,6,44,12,32,5]) == [32, 3, 5, 6, 12, 44]
+    assert candidate([2,4,8,16,32]) == [2, 4, 8, 16, 32]
+    assert candidate([2,4,8,16,32]) == [2, 4, 8, 16, 32]
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def select_words(s, n):
+    """Given a string s and a natural number n, you have been tasked to implement 
+    a function that returns a list of all words from string s that contain exactly 
+    n consonants, in order these words appear in the string s.
+    If the string s is empty then the function should return an empty list.
+    Note: you may assume the input string contains only letters and spaces.
+    Examples:
+    select_words("Mary had a little lamb", 4) ==&gt; ["little"]
+    select_words("Mary had a little lamb", 3) ==&gt; ["Mary", "lamb"]
+    select_words("simple white space", 2) ==&gt; []
+    select_words("Hello world", 4) ==&gt; ["world"]
+    select_words("Uncle sam", 3) ==&gt; ["Uncle"]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def select_words(s, n):
+    result = []
+    for word in s.split():
+        n_consonants = 0
+        for i in range(0, len(word)):
+            if word[i].lower() not in ["a","e","i","o","u"]:
+                n_consonants += 1 
+        if n_consonants == n:
+            result.append(word)
+    return result
+</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>from solution import select_words as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("Mary had a little lamb", 4) == ["little"], "First test error: " + str(candidate("Mary had a little lamb", 4))      
+    assert candidate("Mary had a little lamb", 3) == ["Mary", "lamb"], "Second test error: " + str(candidate("Mary had a little lamb", 3))  
+    assert candidate("simple white space", 2) == [], "Third test error: " + str(candidate("simple white space", 2))      
+    assert candidate("Hello world", 4) == ["world"], "Fourth test error: " + str(candidate("Hello world", 4))  
+    assert candidate("Uncle sam", 3) == ["Uncle"], "Fifth test error: " + str(candidate("Uncle sam", 3))
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("", 4) == [], "1st edge test error: " + str(candidate("", 4))
+    assert candidate("a b c d e f", 1) == ["b", "c", "d", "f"], "2nd edge test error: " + str(candidate("a b c d e f", 1))
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def get_closest_vowel(word):
+    """You are given a word. Your task is to find the closest vowel that stands between 
+    two consonants from the right side of the word (case sensitive).
+    Vowels in the beginning and ending doesn't count. Return empty string if you didn't
+    find any vowel met the above condition. 
+    You may assume that the given string contains English letter only.
+    Example:
+    get_closest_vowel("yogurt") ==&gt; "u"
+    get_closest_vowel("FULL") ==&gt; "U"
+    get_closest_vowel("quick") ==&gt; ""
+    get_closest_vowel("ab") ==&gt; ""
+    """
+</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_closest_vowel(word):
+    if len(word) &lt; 3:
+        return ""
+    vowels = {"a", "e", "i", "o", "u", "A", "E", 'O', 'U', 'I'}
+    for i in range(len(word)-2, 0, -1):
+        if word[i] in vowels:
+            if (word[i+1] not in vowels) and (word[i-1] not in vowels):
+                return word[i]
+    return ""
+</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>from solution import get_closest_vowel as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("yogurt") == "u"
+    assert candidate("full") == "u"
+    assert candidate("easy") == ""
+    assert candidate("eAsy") == ""
+    assert candidate("ali") == ""
+    assert candidate("bad") == "a"
+    assert candidate("most") == "o"
+    assert candidate("ab") == ""
+    assert candidate("ba") == ""
+    assert candidate("quick") == ""
+    assert candidate("anime") == "i"
+    assert candidate("Asia") == ""
+    assert candidate("Above") == "o"
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def match_parens(lst):
+    '''
+    You are given a list of two strings, both strings consist of open
+    parentheses '(' or close parentheses ')' only.
+    Your job is to check if it is possible to concatenate the two strings in
+    some order, that the resulting string will be good.
+    A string S is considered to be good if and only if all parentheses in S
+    are balanced. For example: the string '(())()' is good, while the string
+    '())' is not.
+    Return 'Yes' if there's a way to make a good string, and return 'No' otherwise.
+    Examples:
+    match_parens(['()(', ')']) == 'Yes'
+    match_parens([')', ')']) == 'No'
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_closest_vowel(word):
+    def check(s):
+        val = 0
+        for i in s:
+            if i == '(':
+                val = val + 1
+            else:
+                val = val - 1
+            if val &lt; 0:
+                return False
+        return True if val == 0 else False
+    S1 = lst[0] + lst[1]
+    S2 = lst[1] + lst[0]
+    return 'Yes' if check(S1) or check(S2) else 'No'
+</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>from solution import match_parens as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(['()(', ')']) == 'Yes'
+    assert candidate([')', ')']) == 'No'
+    assert candidate(['(()(())', '())())']) == 'No'
+    assert candidate([')())', '(()()(']) == 'Yes'
+    assert candidate(['(())))', '(()())((']) == 'Yes'
+    assert candidate(['()', '())']) == 'No'
+    assert candidate(['(()(', '()))()']) == 'Yes'
+    assert candidate(['((((', '((())']) == 'No'
+    assert candidate([')(()', '(()(']) == 'No'
+    assert candidate([')(', ')(']) == 'No'
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(['(', ')']) == 'Yes'
+    assert candidate([')', '(']) == 'Yes' 
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def maximum(arr, k):
+    """
+    Given an array arr of integers and a positive integer k, return a sorted list 
+    of length k with the maximum k numbers in arr.
+    Example 1:
+        Input: arr = [-3, -4, 5], k = 3
+        Output: [-4, -3, 5]
+    Example 2:
+        Input: arr = [4, -4, 4], k = 2
+        Output: [4, 4]
+    Example 3:
+        Input: arr = [-3, 2, 1, 2, -1, -2, 1], k = 1
+        Output: [2]
+    Note:
+        1. The length of the array will be in the range of [1, 1000].
+        2. The elements in the array will be in the range of [-1000, 1000].
+        3. 0 &lt;= k &lt;= len(arr)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def maximum(arr, k):
+    if k == 0:
+        return []
+    arr.sort()
+    ans = arr[-k:]
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>from solution import maximum as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([-3, -4, 5], 3) == [-4, -3, 5]
+    assert candidate([4, -4, 4], 2) == [4, 4]
+    assert candidate([-3, 2, 1, 2, -1, -2, 1], 1) == [2]
+    assert candidate([123, -123, 20, 0 , 1, 2, -3], 3) == [2, 20, 123]
+    assert candidate([-123, 20, 0 , 1, 2, -3], 4) == [0, 1, 2, 20]
+    assert candidate([5, 15, 0, 3, -13, -8, 0], 7) == [-13, -8, 0, 0, 3, 5, 15]
+    assert candidate([-1, 0, 2, 5, 3, -10], 2) == [3, 5]
+    assert candidate([1, 0, 5, -7], 1) == [5]
+    assert candidate([4, -4], 2) == [-4, 4]
+    assert candidate([-10, 10], 2) == [-10, 10]
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1, 2, 3, -23, 243, -400, 0], 0) == []
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def solution(lst):
+    """Given a non-empty list of integers, return the sum of all of the odd elements that are in even positions.
+    Examples
+    solution([5, 8, 7, 1]) ==&gt; 12
+    solution([3, 3, 3, 3, 3]) ==&gt; 9
+    solution([30, 13, 24, 321]) ==&gt;0
+    """
+</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def solution(lst):
+    return sum([x for idx, x in enumerate(lst) if idx%2==0 and x%2==1])
+</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>from solution import solution as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([5, 8, 7, 1])    == 12
+    assert candidate([3, 3, 3, 3, 3]) == 9
+    assert candidate([30, 13, 24, 321]) == 0
+    assert candidate([5, 9]) == 5
+    assert candidate([2, 4, 8]) == 0
+    assert candidate([30, 13, 23, 32]) == 23
+    assert candidate([3, 13, 2, 9]) == 3
+    # Check some edge cases that are easy to work out by hand.
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def add_elements(arr, k):
+    """
+    Given a non-empty array of integers arr and an integer k, return
+    the sum of the elements with at most two digits from the first k elements of arr.
+    Example:
+        Input: arr = [111,21,3,4000,5,6,7,8,9], k = 4
+        Output: 24 # sum of 21 + 3
+    Constraints:
+        1. 1 &lt;= len(arr) &lt;= 100
+        2. 1 &lt;= k &lt;= len(arr)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def add_elements(arr, k):
+    return sum(elem for elem in arr[:k] if len(str(elem)) &lt;= 2)
+</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>from solution import add_elements as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,-2,-3,41,57,76,87,88,99], 3) == -4
+    assert candidate([111,121,3,4000,5,6], 2) == 0
+    assert candidate([11,21,3,90,5,6,7,8,9], 4) == 125
+    assert candidate([111,21,3,4000,5,6,7,8,9], 4) == 24, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1], 1) == 1, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def get_odd_collatz(n):
+    """
+    Given a positive integer n, return a sorted list that has the odd numbers in collatz sequence.
+    The Collatz conjecture is a conjecture in mathematics that concerns a sequence defined
+    as follows: start with any positive integer n. Then each term is obtained from the 
+    previous term as follows: if the previous term is even, the next term is one half of 
+    the previous term. If the previous term is odd, the next term is 3 times the previous
+    term plus 1. The conjecture is that no matter what value of n, the sequence will always reach 1.
+    Note: 
+        1. Collatz(1) is [1].
+        2. returned list sorted in increasing order.
+    For example:
+    get_odd_collatz(5) returns [1, 5] # The collatz sequence for 5 is [5, 16, 8, 4, 2, 1], so the odd numbers are only 1, and 5.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_odd_collatz(n):
+    if n%2==0:
+        odd_collatz = [] 
+    else:
+        odd_collatz = [n]
+    while n &gt; 1:
+        if n % 2 == 0:
+            n = n/2
+        else:
+            n = n*3 + 1
+        if n%2 == 1:
+            odd_collatz.append(int(n))
+    return sorted(odd_collatz)
+</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>from solution import get_odd_collatz as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(14) == [1, 5, 7, 11, 13, 17]
+    assert candidate(5) == [1, 5]
+    assert candidate(12) == [1, 3, 5], "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1) == [1], "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def valid_date(date):
+    """You have to write a function which validates a given date string and
+    returns True if the date is valid otherwise False.
+    The date is valid if all of the following rules are satisfied:
+    1. The date string is not empty.
+    2. The number of days is not less than 1 or higher than 31 days for months 1,3,5,7,8,10,12. And the number of days is not less than 1 or higher than 30 days for months 4,6,9,11. And, the number of days is not less than 1 or higher than 29 for the month 2.
+    3. The months should not be less than 1 or higher than 12.
+    4. The date should be in the format: mm-dd-yyyy
+    for example: 
+    valid_date('03-11-2000') =&gt; True
+    valid_date('15-01-2012') =&gt; False
+    valid_date('04-0-2040') =&gt; False
+    valid_date('06-04-2020') =&gt; True
+    valid_date('06/04/2020') =&gt; False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def valid_date(date):
+    try:
+        date = date.strip()
+        month, day, year = date.split('-')
+        month, day, year = int(month), int(day), int(year)
+        if month &lt; 1 or month &gt; 12:
+            return False
+        if month in [1,3,5,7,8,10,12] and day &lt; 1 or day &gt; 31:
+            return False
+        if month in [4,6,9,11] and day &lt; 1 or day &gt; 30:
+            return False
+        if month == 2 and day &lt; 1 or day &gt; 29:
+            return False
+    except:
+        return False
+    return True
+</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>from solution import valid_date as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('03-11-2000') == True
+    assert candidate('15-01-2012') == False
+    assert candidate('04-0-2040') == False
+    assert candidate('06-04-2020') == True
+    assert candidate('01-01-2007') == True
+    assert candidate('03-32-2011') == False
+    assert candidate('') == False
+    assert candidate('04-31-3000') == False
+    assert candidate('06-06-2005') == True
+    assert candidate('21-31-2000') == False
+    assert candidate('04-12-2003') == True
+    assert candidate('04122003') == False
+    assert candidate('20030412') == False
+    assert candidate('2003-04') == False
+    assert candidate('2003-04-12') == False
+    assert candidate('04-2003') == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def split_words(txt):
+    '''
+    Given a string of words, return a list of words split on whitespace, if no whitespaces exists in the text you
+    should split on commas ',' if no commas exists you should return the number of lower-case letters with odd order in the
+    alphabet, ord('a') = 0, ord('b') = 1, ... ord('z') = 25
+    Examples
+    split_words("Hello world!") 鉃 ["Hello", "world!"]
+    split_words("Hello,world!") 鉃 ["Hello", "world!"]
+    split_words("abcdef") == 3 
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def valid_date(date):
+    if " " in txt:
+        return txt.split()
+    elif "," in txt:
+        return txt.replace(',',' ').split()
+    else:
+        return len([i for i in txt if i.islower() and ord(i)%2 == 0])
+</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>from solution import split_words as candidate 
+def main():
+    assert candidate("Hello world!") == ["Hello","world!"]
+    assert candidate("Hello,world!") == ["Hello","world!"]
+    assert candidate("Hello world,!") == ["Hello","world,!"]
+    assert candidate("Hello,Hello,world !") == ["Hello,Hello,world","!"]
+    assert candidate("abcdef") == 3
+    assert candidate("aaabb") == 2
+    assert candidate("aaaBb") == 1
+    assert candidate("") == 0
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_sorted(lst):
+    '''
+    Given a list of numbers, return whether or not they are sorted
+    in ascending order. If list has more than 1 duplicate of the same
+    number, return False. Assume no negative numbers and only integers.
+    Examples
+    is_sorted([5]) 鉃 True
+    is_sorted([1, 2, 3, 4, 5]) 鉃 True
+    is_sorted([1, 3, 2, 4, 5]) 鉃 False
+    is_sorted([1, 2, 3, 4, 5, 6]) 鉃 True
+    is_sorted([1, 2, 3, 4, 5, 6, 7]) 鉃 True
+    is_sorted([1, 3, 2, 4, 5, 6, 7]) 鉃 False
+    is_sorted([1, 2, 2, 3, 3, 4]) 鉃 True
+    is_sorted([1, 2, 2, 2, 3, 4]) 鉃 False
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def valid_date(date):
+    count_digit = dict([(i, 0) for i in lst])
+    for i in lst:
+        count_digit[i]+=1 
+    if any(count_digit[i] &gt; 2 for i in lst):
+        return False
+    if all(lst[i-1] &lt;= lst[i] for i in range(1, len(lst))):
+        return True
+    else:
+        return False
+</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>from solution import is_sorted as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([5]) == True
+    assert candidate([1, 2, 3, 4, 5]) == True
+    assert candidate([1, 3, 2, 4, 5]) == False
+    assert candidate([1, 2, 3, 4, 5, 6]) == True
+    assert candidate([1, 2, 3, 4, 5, 6, 7]) == True
+    assert candidate([1, 3, 2, 4, 5, 6, 7]) == False, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([]) == True, "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate([1]) == True, "This prints if this assert fails 3 (good for debugging!)"
+    assert candidate([3, 2, 1]) == False, "This prints if this assert fails 4 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1, 2, 2, 2, 3, 4]) == False, "This prints if this assert fails 5 (good for debugging!)"
+    assert candidate([1, 2, 3, 3, 3, 4]) == False, "This prints if this assert fails 6 (good for debugging!)"
+    assert candidate([1, 2, 2, 3, 3, 4]) == True, "This prints if this assert fails 7 (good for debugging!)"
+    assert candidate([1, 2, 3, 4]) == True, "This prints if this assert fails 8 (good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def intersection(interval1, interval2):
+    """You are given two intervals,
+    where each interval is a pair of integers. For example, interval = (start, end) = (1, 2).
+    The given intervals are closed which means that the interval (start, end)
+    includes both start and end.
+    For each given interval, it is assumed that its start is less or equal its end.
+    Your task is to determine whether the length of intersection of these two 
+    intervals is a prime number.
+    Example, the intersection of the intervals (1, 3), (2, 4) is (2, 3)
+    which its length is 1, which not a prime number.
+    If the length of the intersection is a prime number, return "YES",
+    otherwise, return "NO".
+    If the two intervals don't intersect, return "NO".
+    [input/output] samples:
+    intersection((1, 2), (2, 3)) ==&gt; "NO"
+    intersection((-1, 1), (0, 4)) ==&gt; "NO"
+    intersection((-3, -1), (-5, 5)) ==&gt; "YES"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def intersection(interval1, interval2):
+    def is_prime(num):
+        if num == 1 or num == 0:
+            return False
+        if num == 2:
+            return True
+        for i in range(2, num):
+            if num%i == 0:
+                return False
+        return True
+    l = max(interval1[0], interval2[0])
+    r = min(interval1[1], interval2[1])
+    length = r - l
+    if length &gt; 0 and is_prime(length):
+        return "YES"
+    return "NO"
+</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>from solution import intersection as candidate 
+def main():
+    # Check some simple cases
+    assert candidate((1, 2), (2, 3)) == "NO"
+    assert candidate((-1, 1), (0, 4)) == "NO"
+    assert candidate((-3, -1), (-5, 5)) == "YES"
+    assert candidate((-2, 2), (-4, 0)) == "YES"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate((-11, 2), (-1, -1)) == "NO"
+    assert candidate((1, 2), (3, 5)) == "NO"
+    assert candidate((1, 2), (1, 2)) == "NO"
+    assert candidate((-2, -2), (-3, -2)) == "NO"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def prod_signs(arr):
+    """
+    You are given an array arr of integers and you need to return
+    sum of magnitudes of integers multiplied by product of all signs
+    of each number in the array, represented by 1, -1 or 0.
+    Note: return None for empty arr.
+    Example:
+    &gt;&gt;&gt; prod_signs([1, 2, 2, -4]) == -9
+    &gt;&gt;&gt; prod_signs([0, 1]) == 0
+    &gt;&gt;&gt; prod_signs([]) == None
+    """
+</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def prod_signs(arr):
+    if not arr: return None
+    prod = 0 if 0 in arr else (-1) ** len(list(filter(lambda x: x &lt; 0, arr)))
+    return prod * sum([abs(i) for i in arr])
+</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>from solution import prod_signs as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1, 2, 2, -4]) == -9
+    assert candidate([0, 1]) == 0
+    assert candidate([1, 1, 1, 2, 3, -1, 1]) == -10
+    assert candidate([]) == None
+    assert candidate([2, 4,1, 2, -1, -1, 9]) == 20
+    assert candidate([-1, 1, -1, 1]) == 4
+    assert candidate([-1, 1, 1, 1]) == -4
+    assert candidate([-1, 1, 1, 0]) == 0
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def minPath(grid, k):
+    """
+    Given a grid with N rows and N columns (N &gt;= 2) and a positive integer k, 
+    each cell of the grid contains a value. Every integer in the range [1, N * N]
+    inclusive appears exactly once on the cells of the grid.
+    You have to find the minimum path of length k in the grid. You can start
+    from any cell, and in each step you can move to any of the neighbor cells,
+    in other words, you can go to cells which share an edge with you current
+    cell.
+    Please note that a path of length k means visiting exactly k cells (not
+    necessarily distinct).
+    You CANNOT go off the grid.
+    A path A (of length k) is considered less than a path B (of length k) if
+    after making the ordered lists of the values on the cells that A and B go
+    through (let's call them lst_A and lst_B), lst_A is lexicographically less
+    than lst_B, in other words, there exist an integer index i (1 &lt;= i &lt;= k)
+    such that lst_A[i] &lt; lst_B[i] and for any j (1 &lt;= j &lt; i) we have
+    lst_A[j] = lst_B[j].
+    It is guaranteed that the answer is unique.
+    Return an ordered list of the values on the cells that the minimum path go through.
+    Examples:
+        Input: grid = [ [1,2,3], [4,5,6], [7,8,9]], k = 3
+        Output: [1, 2, 1]
+        Input: grid = [ [5,9,3], [4,1,6], [7,8,2]], k = 1
+        Output: [1]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def minPath(grid, k):
+    n = len(grid)
+    val = n * n + 1
+    for i in range(n):
+        for j in range(n):
+            if grid[i][j] == 1:
+                temp = []
+                if i != 0:
+                    temp.append(grid[i - 1][j])
+                if j != 0:
+                    temp.append(grid[i][j - 1])
+                if i != n - 1:
+                    temp.append(grid[i + 1][j])
+                if j != n - 1:
+                    temp.append(grid[i][j + 1])
+                val = min(temp)
+    ans = []
+    for i in range(k):
+        if i % 2 == 0:
+            ans.append(1)
+        else:
+            ans.append(val)
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>from solution import minPath as candidate 
+def main():
+    # Check some simple cases
+    print
+    assert candidate([[1, 2, 3], [4, 5, 6], [7, 8, 9]], 3) == [1, 2, 1]
+    assert candidate([[5, 9, 3], [4, 1, 6], [7, 8, 2]], 1) == [1]
+    assert candidate([[1, 2, 3, 4], [5, 6, 7, 8], [9, 10, 11, 12], [13, 14, 15, 16]], 4) == [1, 2, 1, 2]
+    assert candidate([[6, 4, 13, 10], [5, 7, 12, 1], [3, 16, 11, 15], [8, 14, 9, 2]], 7) == [1, 10, 1, 10, 1, 10, 1]
+    assert candidate([[8, 14, 9, 2], [6, 4, 13, 15], [5, 7, 1, 12], [3, 10, 11, 16]], 5) == [1, 7, 1, 7, 1]
+    assert candidate([[11, 8, 7, 2], [5, 16, 14, 4], [9, 3, 15, 6], [12, 13, 10, 1]], 9) == [1, 6, 1, 6, 1, 6, 1, 6, 1]
+    assert candidate([[12, 13, 10, 1], [9, 3, 15, 6], [5, 16, 14, 4], [11, 8, 7, 2]], 12) == [1, 6, 1, 6, 1, 6, 1, 6, 1, 6, 1, 6]
+    assert candidate([[2, 7, 4], [3, 1, 5], [6, 8, 9]], 8) == [1, 3, 1, 3, 1, 3, 1, 3]
+    assert candidate([[6, 1, 5], [3, 8, 9], [2, 7, 4]], 8) == [1, 5, 1, 5, 1, 5, 1, 5]
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([[1, 2], [3, 4]], 10) == [1, 2, 1, 2, 1, 2, 1, 2, 1, 2]
+    assert candidate([[1, 3], [3, 2]], 10) == [1, 3, 1, 3, 1, 3, 1, 3, 1, 3]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def tri(n):
+    """Everyone knows Fibonacci sequence, it was studied deeply by mathematicians in 
+    the last couple centuries. However, what people don't know is Tribonacci sequence.
+    Tribonacci sequence is defined by the recurrence:
+    tri(1) = 3
+    tri(n) = 1 + n / 2, if n is even.
+    tri(n) =  tri(n - 1) + tri(n - 2) + tri(n + 1), if n is odd.
+    For example:
+    tri(2) = 1 + (2 / 2) = 2
+    tri(4) = 3
+    tri(3) = tri(2) + tri(1) + tri(4)
+           = 2 + 3 + 3 = 8 
+    You are given a non-negative integer number n, you have to a return a list of the 
+    first n + 1 numbers of the Tribonacci sequence.
+    Examples:
+    tri(3) = [1, 3, 2, 8]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def tri(n):
+    if n == 0:
+        return [1]
+    my_tri = [1, 3]
+    for i in range(2, n + 1):
+        if i % 2 == 0:
+            my_tri.append(i / 2 + 1)
+        else:
+            my_tri.append(my_tri[i - 1] + my_tri[i - 2] + (i + 3) / 2)
+    return my_tri
+</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>from solution import tri as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(3) == [1, 3, 2.0, 8.0]
+    assert candidate(4) == [1, 3, 2.0, 8.0, 3.0]
+    assert candidate(5) == [1, 3, 2.0, 8.0, 3.0, 15.0]
+    assert candidate(6) == [1, 3, 2.0, 8.0, 3.0, 15.0, 4.0]
+    assert candidate(7) == [1, 3, 2.0, 8.0, 3.0, 15.0, 4.0, 24.0]
+    assert candidate(8) == [1, 3, 2.0, 8.0, 3.0, 15.0, 4.0, 24.0, 5.0]
+    assert candidate(9) == [1, 3, 2.0, 8.0, 3.0, 15.0, 4.0, 24.0, 5.0, 35.0]
+    assert candidate(20) == [1, 3, 2.0, 8.0, 3.0, 15.0, 4.0, 24.0, 5.0, 35.0, 6.0, 48.0, 7.0, 63.0, 8.0, 80.0, 9.0, 99.0, 10.0, 120.0, 11.0]
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(0) == [1]
+    assert candidate(1) == [1, 3]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def digits(n):
+    """Given a positive integer n, return the product of the odd digits.
+    Return 0 if all digits are even.
+    For example:
+    digits(1)  == 1
+    digits(4)  == 0
+    digits(235) == 15
+    """
+</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def digits(n):
+    product = 1
+    odd_count = 0
+    for digit in str(n):
+        int_digit = int(digit)
+        if int_digit%2 == 1:
+            product= product*int_digit
+            odd_count+=1
+    if odd_count ==0:
+        return 0
+    else:
+        return product
+</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>from solution import digits as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(5) == 5
+    assert candidate(54) == 5
+    assert candidate(120) ==1
+    assert candidate(5014) == 5
+    assert candidate(98765) == 315
+    assert candidate(5576543) == 2625
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(2468) == 0
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_nested(string):
+    '''
+    Create a function that takes a string as input which contains only square brackets.
+    The function should return True if and only if there is a valid subsequence of brackets 
+    where at least one bracket in the subsequence is nested.
+    is_nested('[[]]') 鉃 True
+    is_nested('[]]]]]]][[[[[]') 鉃 False
+    is_nested('[][]') 鉃 False
+    is_nested('[]') 鉃 False
+    is_nested('[[][]]') 鉃 True
+    is_nested('[[]][[') 鉃 True
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def digits(n):
+    opening_bracket_index = []
+    closing_bracket_index = []
+    for i in range(len(string)):
+        if string[i] == '[':
+            opening_bracket_index.append(i)
+        else:
+            closing_bracket_index.append(i)
+    closing_bracket_index.reverse()
+    cnt = 0
+    i = 0
+    l = len(closing_bracket_index)
+    for idx in opening_bracket_index:
+        if i &lt; l and idx &lt; closing_bracket_index[i]:
+            cnt += 1
+            i += 1
+    return cnt &gt;= 2
+</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>from solution import is_nested as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('[[]]') == True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate('[]]]]]]][[[[[]') == False
+    assert candidate('[][]') == False
+    assert candidate(('[]')) == False
+    assert candidate('[[[[]]]]') == True
+    assert candidate('[]]]]]]]]]]') == False
+    assert candidate('[][][[]]') == True
+    assert candidate('[[]') == False
+    assert candidate('[]]') == False
+    assert candidate('[[]][[') == True
+    assert candidate('[[][]]') == True
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('') == False, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate('[[[[[[[[') == False
+    assert candidate(']]]]]]]]') == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sum_squares(lst):
+    """You are given a list of numbers.
+    You need to return the sum of squared numbers in the given list,
+    round each element in the list to the upper int(Ceiling) first.
+    Examples:
+    For lst = [1,2,3] the output should be 14
+    For lst = [1,4,9] the output should be 98
+    For lst = [1,3,5,7] the output should be 84
+    For lst = [1.4,4.2,0] the output should be 29
+    For lst = [-2.4,1,1] the output should be 6
+    """
+</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sum_squares(lst):
+    import math
+    squared = 0
+    for i in lst:
+        squared += math.ceil(i)**2
+    return squared
+</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>from solution import sum_squares as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,2,3])==14, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1.0,2,3])==14, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1,3,5,7])==84, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1.4,4.2,0])==29, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([-2.4,1,1])==6, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([100,1,15,2])==10230, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([10000,10000])==200000000, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([-1.4,4.6,6.3])==75, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([-1.4,17.9,18.9,19.9])==1086, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([0])==0, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([-1])==1, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate([-1,1,0])==2, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def check_if_last_char_is_a_letter(txt):
+    '''
+    Create a function that returns True if the last character
+    of a given string is an alphabetical character and is not
+    a part of a word, and False otherwise.
+    Note: "word" is a group of characters separated by space.
+    Examples:
+    check_if_last_char_is_a_letter("apple pie") 鉃 False
+    check_if_last_char_is_a_letter("apple pi e") 鉃 True
+    check_if_last_char_is_a_letter("apple pi e ") 鉃 False
+    check_if_last_char_is_a_letter("") 鉃 False 
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sum_squares(lst):
+    check = txt.split(' ')[-1]
+    return True if len(check) == 1 and (97 &lt;= ord(check.lower()) &lt;= 122) else False
+</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>from solution import check_if_last_char_is_a_letter as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("apple") == False
+    assert candidate("apple pi e") == True
+    assert candidate("eeeee") == False
+    assert candidate("A") == True
+    assert candidate("Pumpkin pie ") == False
+    assert candidate("Pumpkin pie 1") == False
+    assert candidate("") == False
+    assert candidate("eeeee e ") == False
+    assert candidate("apple pie") == False
+    assert candidate("apple pi e ") == False
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def can_arrange(arr):
+    """Create a function which returns the largest index of an element which
+    is not greater than or equal to the element immediately preceding it. If
+    no such element exists then return -1. The given array will not contain
+    duplicate values.
+    Examples:
+    can_arrange([1,2,4,3,5]) = 3
+    can_arrange([1,2,3]) = -1
+    """
+</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def can_arrange(arr):
+    ind=-1
+    i=1
+    while i&lt;len(arr):
+      if arr[i]&lt;arr[i-1]:
+        ind=i
+      i+=1
+    return ind
+</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>from solution import can_arrange as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,2,4,3,5])==3
+    assert candidate([1,2,4,5])==-1
+    assert candidate([1,4,2,5,6,7,8,9,10])==2
+    assert candidate([4,8,5,7,3])==4
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([])==-1
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def largest_smallest_integers(lst):
+    '''
+    Create a function that returns a tuple (a, b), where 'a' is
+    the largest of negative integers, and 'b' is the smallest
+    of positive integers in a list.
+    If there is no negative or positive integers, return them as None.
+    Examples:
+    largest_smallest_integers([2, 4, 1, 3, 5, 7]) == (None, 1)
+    largest_smallest_integers([]) == (None, None)
+    largest_smallest_integers([0]) == (None, None)
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def can_arrange(arr):
+    smallest = list(filter(lambda x: x &lt; 0, lst))
+    largest = list(filter(lambda x: x &gt; 0, lst))
+    return (max(smallest) if smallest else None, min(largest) if largest else None)
+</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>from solution import largest_smallest_integers as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([2, 4, 1, 3, 5, 7]) == (None, 1)
+    assert candidate([2, 4, 1, 3, 5, 7, 0]) == (None, 1)
+    assert candidate([1, 3, 2, 4, 5, 6, -2]) == (-2, 1)
+    assert candidate([4, 5, 3, 6, 2, 7, -7]) == (-7, 2)
+    assert candidate([7, 3, 8, 4, 9, 2, 5, -9]) == (-9, 2)
+    assert candidate([]) == (None, None)
+    assert candidate([0]) == (None, None)
+    assert candidate([-1, -3, -5, -6]) == (-1, None)
+    assert candidate([-1, -3, -5, -6, 0]) == (-1, None)
+    assert candidate([-6, -4, -4, -3, 1]) == (-3, 1)
+    assert candidate([-6, -4, -4, -3, -100, 1]) == (-3, 1)
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def compare_one(a, b):
+    """
+    Create a function that takes integers, floats, or strings representing
+    real numbers, and returns the larger variable in its given variable type.
+    Return None if the values are equal.
+    Note: If a real number is represented as a string, the floating point might be . or ,
+    compare_one(1, 2.5) 鉃 2.5
+    compare_one(1, "2,3") 鉃 "2,3"
+    compare_one("5,1", "6") 鉃 "6"
+    compare_one("1", 1) 鉃 None
+    """
+</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def compare_one(a, b):
+    temp_a, temp_b = a, b
+    if isinstance(temp_a, str): temp_a = temp_a.replace(',','.')
+    if isinstance(temp_b, str): temp_b = temp_b.replace(',','.')
+    if float(temp_a) == float(temp_b): return None
+    return a if float(temp_a) &gt; float(temp_b) else b 
+</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>from solution import compare_one as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(1, 2) == 2
+    assert candidate(1, 2.5) == 2.5
+    assert candidate(2, 3) == 3
+    assert candidate(5, 6) == 6
+    assert candidate(1, "2,3") == "2,3"
+    assert candidate("5,1", "6") == "6"
+    assert candidate("1", "2") == "2"
+    assert candidate("1", 1) == None
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def is_equal_to_sum_even(n):
+    """Evaluate whether the given number n can be written as the sum of exactly 4 positive even numbers
+    Example
+    is_equal_to_sum_even(4) == False
+    is_equal_to_sum_even(6) == False
+    is_equal_to_sum_even(8) == True
+    """
+</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def is_equal_to_sum_even(n):
+    return n%2 == 0 and n &gt;= 8
+</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>from solution import is_equal_to_sum_even as candidate 
+def main():
+    assert candidate(4) == False
+    assert candidate(6) == False
+    assert candidate(8) == True
+    assert candidate(10) == True
+    assert candidate(11) == False
+    assert candidate(12) == True
+    assert candidate(13) == False
+    assert candidate(16) == True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def special_factorial(n):
+    """The Brazilian factorial is defined as:
+    brazilian_factorial(n) = n! * (n-1)! * (n-2)! * ... * 1!
+    where n &gt; 0
+    For example:
+    &gt;&gt;&gt; special_factorial(4)
+    288
+    The function will receive an integer as input and should return the special
+    factorial of this integer.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def special_factorial(n):
+    fact_i = 1
+    special_fact = 1
+    for i in range(1, n+1):
+        fact_i *= i
+        special_fact *= fact_i
+    return special_fact
+</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>from solution import special_factorial as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(4) == 288, "Test 4"
+    assert candidate(5) == 34560, "Test 5"
+    assert candidate(7) == 125411328000, "Test 7"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1) == 1, "Test 1"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def fix_spaces(text):
+    """
+    Given a string text, replace all spaces in it with underscores, 
+    and if a string has more than 2 consecutive spaces, 
+    then replace all consecutive spaces with - 
+    fix_spaces("Example") == "Example"
+    fix_spaces("Example 1") == "Example_1"
+    fix_spaces(" Example 2") == "_Example_2"
+    fix_spaces(" Example   3") == "_Example-3"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def fix_spaces(text):
+    new_text = ""
+    i = 0
+    start, end = 0, 0
+    while i &lt; len(text):
+        if text[i] == " ":
+            end += 1
+        else:
+            if end - start &gt; 2:
+                new_text += "-"+text[i]
+            elif end - start &gt; 0:
+                new_text += "_"*(end - start)+text[i]
+            else:
+                new_text += text[i]
+            start, end = i+1, i+1
+        i+=1
+    if end - start &gt; 2:
+        new_text += "-"
+    elif end - start &gt; 0:
+        new_text += "_"
+    return new_text
+</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>from solution import fix_spaces as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("Example") == "Example", "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate("Mudasir Hanif ") == "Mudasir_Hanif_", "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate("Yellow Yellow  Dirty  Fellow") == "Yellow_Yellow__Dirty__Fellow", "This prints if this assert fails 3 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("Exa   mple") == "Exa-mple", "This prints if this assert fails 4 (good for debugging!)"
+    assert candidate("   Exa 1 2 2 mple") == "-Exa_1_2_2_mple", "This prints if this assert fails 4 (good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def file_name_check(file_name):
+    """Create a function which takes a string representing a file's name, and returns
+    'Yes' if the the file's name is valid, and returns 'No' otherwise.
+    A file's name is considered to be valid if and only if all the following conditions 
+    are met:
+    - There should not be more than three digits ('0'-'9') in the file's name.
+    - The file's name contains exactly one dot '.'
+    - The substring before the dot should not be empty, and it starts with a letter from 
+    the latin alphapet ('a'-'z' and 'A'-'Z').
+    - The substring after the dot should be one of these: ['txt', 'exe', 'dll']
+    Examples:
+    file_name_check("example.txt") # =&gt; 'Yes'
+    file_name_check("1example.dll") # =&gt; 'No' (the name should start with a latin alphapet letter)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def file_name_check(file_name):
+    suf = ['txt', 'exe', 'dll']
+    lst = file_name.split(sep='.')
+    if len(lst) != 2:
+        return 'No'
+    if not lst[1] in suf:
+        return 'No'
+    if len(lst[0]) == 0:
+        return 'No'
+    if not lst[0][0].isalpha():
+        return 'No'
+    t = len([x for x in lst[0] if x.isdigit()])
+    if t &gt; 3:
+        return 'No'
+    return 'Yes'
+</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>from solution import file_name_check as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("example.txt") == 'Yes'
+    assert candidate("1example.dll") == 'No'
+    assert candidate('s1sdf3.asd') == 'No'
+    assert candidate('K.dll') == 'Yes'
+    assert candidate('MY16FILE3.exe') == 'Yes'
+    assert candidate('His12FILE94.exe') == 'No'
+    assert candidate('_Y.txt') == 'No'
+    assert candidate('?aREYA.exe') == 'No'
+    assert candidate('/this_is_valid.dll') == 'No'
+    assert candidate('this_is_valid.wow') == 'No'
+    assert candidate('this_is_valid.txt') == 'Yes'
+    assert candidate('this_is_valid.txtexe') == 'No'
+    assert candidate('#this2_i4s_5valid.ten') == 'No'
+    assert candidate('@this1_is6_valid.exe') == 'No'
+    assert candidate('this_is_12valid.6exe4.txt') == 'No'
+    assert candidate('all.exe.txt') == 'No'
+    assert candidate('I563_No.exe') == 'Yes'
+    assert candidate('Is3youfault.txt') == 'Yes'
+    assert candidate('no_one#knows.dll') == 'Yes'
+    assert candidate('1I563_Yes3.exe') == 'No'
+    assert candidate('I563_Yes3.txtt') == 'No'
+    assert candidate('final..txt') == 'No'
+    assert candidate('final132') == 'No'
+    assert candidate('_f4indsartal132.') == 'No'
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('.txt') == 'No'
+    assert candidate('s.') == 'No'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sum_squares(lst):
+    """"
+    This function will take a list of integers. For all entries in the list, the function shall square the integer entry if its index is a 
+    multiple of 3 and will cube the integer entry if its index is a multiple of 4 and not a multiple of 3. The function will not 
+    change the entries in the list whose indexes are not a multiple of 3 or 4. The function shall then return the sum of all entries. 
+    Examples:
+    For lst = [1,2,3] the output should be 6
+    For lst = []  the output should be 0
+    For lst = [-1,-5,2,-1,-5]  the output should be -126
+    """
+</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sum_squares(lst):
+    result =[]
+    for i in range(len(lst)):
+        if i %3 == 0:
+            result.append(lst[i]**2)
+        elif i % 4 == 0 and i%3 != 0:
+            result.append(lst[i]**3)
+        else:
+            result.append(lst[i])
+    return sum(result)
+</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>from solution import sum_squares as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,2,3]) == 6
+    assert candidate([1,4,9]) == 14
+    assert candidate([]) == 0
+    assert candidate([1,1,1,1,1,1,1,1,1]) == 9
+    assert candidate([-1,-1,-1,-1,-1,-1,-1,-1,-1]) == -3
+    assert candidate([0]) == 0
+    assert candidate([-1,-5,2,-1,-5]) == -126
+    assert candidate([-56,-99,1,0,-2]) == 3030
+    assert candidate([-1,0,0,0,0,0,0,0,-1]) == 0
+    assert candidate([-16, -9, -2, 36, 36, 26, -20, 25, -40, 20, -4, 12, -26, 35, 37]) == -14196
+    assert candidate([-1, -3, 17, -1, -15, 13, -1, 14, -14, -12, -5, 14, -14, 6, 13, 11, 16, 16, 4, 10]) == -1448
+    # Don't remove this line:
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def words_in_sentence(sentence):
+    """
+    You are given a string representing a sentence,
+    the sentence contains some words separated by a space,
+    and you have to return a string that contains the words from the original sentence,
+    whose lengths are prime numbers,
+    the order of the words in the new string should be the same as the original one.
+    Example 1:
+        Input: sentence = "This is a test"
+        Output: "is"
+    Example 2:
+        Input: sentence = "lets go for swimming"
+        Output: "go for"
+    Constraints:
+        * 1 &lt;= len(sentence) &lt;= 100
+        * sentence contains only letters
+    """
+</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def words_in_sentence(sentence):
+    new_lst = []
+    for word in sentence.split():
+        flg = 0
+        if len(word) == 1:
+            flg = 1
+        for i in range(2, len(word)):
+            if len(word)%i == 0:
+                flg = 1
+        if flg == 0 or len(word) == 2:
+            new_lst.append(word)
+    return " ".join(new_lst)
+</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>from solution import words_in_sentence as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("This is a test") == "is"
+    assert candidate("lets go for swimming") == "go for"
+    assert candidate("there is no place available here") == "there is no place"
+    assert candidate("Hi I am Hussein") == "Hi am Hussein"
+    assert candidate("go for it") == "go for it"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("here") == ""
+    assert candidate("here is") == "is"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def simplify(x, n):
+    """Your task is to implement a function that will simplify the expression
+    x * n. The function returns True if x * n evaluates to a whole number and False
+    otherwise. Both x and n, are string representation of a fraction, and have the following format,
+    &lt;numerator&gt;/&lt;denominator&gt; where both numerator and denominator are positive whole numbers.
+    You can assume that x, and n are valid fractions, and do not have zero as denominator.
+    simplify("1/5", "5/1") = True
+    simplify("1/6", "2/1") = False
+    simplify("7/10", "10/2") = False
+    """
+</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def simplify(x, n):
+    a, b = x.split("/")
+    c, d = n.split("/")
+    numerator = int(a) * int(c)
+    denom = int(b) * int(d)
+    if (numerator/denom == int(numerator/denom)):
+        return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>from solution import simplify as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("1/5", "5/1") == True, 'test1'
+    assert candidate("1/6", "2/1") == False, 'test2'
+    assert candidate("5/1", "3/1") == True, 'test3'
+    assert candidate("7/10", "10/2") == False, 'test4'
+    assert candidate("2/10", "50/10") == True, 'test5'
+    assert candidate("7/2", "4/2") == True, 'test6'
+    assert candidate("11/6", "6/1") == True, 'test7'
+    assert candidate("2/3", "5/2") == False, 'test8'
+    assert candidate("5/2", "3/5") == False, 'test9'
+    assert candidate("2/4", "8/4") == True, 'test10'
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("2/4", "4/2") == True, 'test11'
+    assert candidate("1/5", "5/1") == True, 'test12'
+    assert candidate("1/5", "1/5") == False, 'test13'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def order_by_points(nums):
+    """
+    Write a function which sorts the given list of integers
+    in ascending order according to the sum of their digits.
+    Note: if there are several items with similar sum of their digits,
+    order them based on their index in original list.
+    For example:
+    &gt;&gt;&gt; order_by_points([1, 11, -1, -11, -12]) == [-1, -11, 1, -12, 11]
+    &gt;&gt;&gt; order_by_points([]) == []
+    """
+</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def order_by_points(nums):
+    def digits_sum(n):
+        neg = 1
+        if n &lt; 0: n, neg = -1 * n, -1 
+        n = [int(i) for i in str(n)]
+        n[0] = n[0] * neg
+        return sum(n)
+    return sorted(nums, key=digits_sum)
+</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>from solution import order_by_points as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1, 11, -1, -11, -12]) == [-1, -11, 1, -12, 11]
+    assert candidate([1234,423,463,145,2,423,423,53,6,37,3457,3,56,0,46]) == [0, 2, 3, 6, 53, 423, 423, 423, 1234, 145, 37, 46, 56, 463, 3457]
+    assert candidate([]) == []
+    assert candidate([1, -11, -32, 43, 54, -98, 2, -3]) == [-3, -32, -98, -11, 1, 2, 43, 54]
+    assert candidate([1,2,3,4,5,6,7,8,9,10,11]) == [1, 10, 2, 11, 3, 4, 5, 6, 7, 8, 9]
+    assert candidate([0,6,6,-76,-21,23,4]) == [-76, -21, 0, 4, 23, 6, 6]
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def specialFilter(nums):
+    """Write a function that takes an array of numbers as input and returns 
+    the number of elements in the array that are greater than 10 and both 
+    first and last digits of a number are odd (1, 3, 5, 7, 9).
+    For example:
+    specialFilter([15, -73, 14, -15]) =&gt; 1 
+    specialFilter([33, -2, -3, 45, 21, 109]) =&gt; 2
+    """
+</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def specialFilter(nums):
+    count = 0
+    for num in nums:
+        if num &gt; 10:
+            odd_digits = (1, 3, 5, 7, 9)
+            number_as_string = str(num)
+            if int(number_as_string[0]) in odd_digits and int(number_as_string[-1]) in odd_digits:
+                count += 1
+    return count 
+</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>from solution import specialFilter as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([5, -2, 1, -5]) == 0  
+    assert candidate([15, -73, 14, -15]) == 1
+    assert candidate([33, -2, -3, 45, 21, 109]) == 2
+    assert candidate([43, -12, 93, 125, 121, 109]) == 4
+    assert candidate([71, -2, -33, 75, 21, 19]) == 3
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([1]) == 0              
+    assert candidate([]) == 0                   
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def get_max_triples(n):
+    """
+    You are given a positive integer n. You have to create an integer array a of length n.
+        For each i (1 鈮 i 鈮 n), the value of a[i] = i * i - i + 1.
+        Return the number of triples (a[i], a[j], a[k]) of a where i &lt; j &lt; k, 
+    and a[i] + a[j] + a[k] is a multiple of 3.
+    Example :
+        Input: n = 5
+        Output: 1
+        Explanation: 
+        a = [1, 3, 7, 13, 21]
+        The only valid triple is (1, 7, 13).
+    """
+</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_max_triples(n):
+    A = [i*i - i + 1 for i in range(1,n+1)]
+    ans = []
+    for i in range(n):
+        for j in range(i+1,n):
+            for k in range(j+1,n):
+                if (A[i]+A[j]+A[k])%3 == 0:
+                    ans += [(A[i],A[j],A[k])]
+    return len(ans)
+</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>from solution import get_max_triples as candidate 
+def main():
+    assert candidate(5) == 1
+    assert candidate(6) == 4
+    assert candidate(10) == 36
+    assert candidate(100) == 53361
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def bf(planet1, planet2):
+    '''
+    There are eight planets in our solar system: the closerst to the Sun 
+    is Mercury, the next one is Venus, then Earth, Mars, Jupiter, Saturn, 
+    Uranus, Neptune.
+    Write a function that takes two planet names as strings planet1 and planet2. 
+    The function should return a tuple containing all planets whose orbits are 
+    located between the orbit of planet1 and the orbit of planet2, sorted by 
+    the proximity to the sun. 
+    The function should return an empty tuple if planet1 or planet2
+    are not correct planet names. 
+    Examples
+    bf("Jupiter", "Neptune") ==&gt; ("Saturn", "Uranus")
+    bf("Earth", "Mercury") ==&gt; ("Venus")
+    bf("Mercury", "Uranus") ==&gt; ("Venus", "Earth", "Mars", "Jupiter", "Saturn")
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def get_max_triples(n):
+    planet_names = ("Mercury", "Venus", "Earth", "Mars", "Jupiter", "Saturn", "Uranus", "Neptune")
+    if planet1 not in planet_names or planet2 not in planet_names or planet1 == planet2:
+        return ()
+    planet1_index = planet_names.index(planet1)
+    planet2_index = planet_names.index(planet2)
+    if planet1_index &lt; planet2_index:
+        return (planet_names[planet1_index + 1: planet2_index])
+    else:
+        return (planet_names[planet2_index + 1 : planet1_index])
+</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>from solution import bf as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("Jupiter", "Neptune") == ("Saturn", "Uranus"), "First test error: " + str(len(candidate("Jupiter", "Neptune")))      
+    assert candidate("Earth", "Mercury") == ("Venus",), "Second test error: " + str(candidate("Earth", "Mercury"))  
+    assert candidate("Mercury", "Uranus") == ("Venus", "Earth", "Mars", "Jupiter", "Saturn"), "Third test error: " + str(candidate("Mercury", "Uranus"))      
+    assert candidate("Neptune", "Venus") == ("Earth", "Mars", "Jupiter", "Saturn", "Uranus"), "Fourth test error: " + str(candidate("Neptune", "Venus"))  
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("Earth", "Earth") == ()
+    assert candidate("Mars", "Earth") == ()
+    assert candidate("Jupiter", "Makemake") == ()
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def sorted_list_sum(lst):
+    """Write a function that accepts a list of strings as a parameter,
+    deletes the strings that have odd lengths from it,
+    and returns the resulted list with a sorted order,
+    The list is always a list of strings and never an array of numbers,
+    and it may contain duplicates.
+    The order of the list should be ascending by length of each word, and you
+    should return the list sorted by that rule.
+    If two words have the same length, sort the list alphabetically.
+    The function should return a list of strings in sorted order.
+    You may assume that all words will have the same length.
+    For example:
+    assert list_sort(["aa", "a", "aaa"]) =&gt; ["aa"]
+    assert list_sort(["ab", "a", "aaa", "cd"]) =&gt; ["ab", "cd"]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def sorted_list_sum(lst):
+    lst.sort()
+    new_lst = []
+    for i in lst:
+        if len(i)%2 == 0:
+            new_lst.append(i)
+    return sorted(new_lst, key=len)
+</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>from solution import sorted_list_sum as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(["aa", "a", "aaa"]) == ["aa"]
+    assert candidate(["school", "AI", "asdf", "b"]) == ["AI", "asdf", "school"]
+    assert candidate(["d", "b", "c", "a"]) == []
+    assert candidate(["d", "dcba", "abcd", "a"]) == ["abcd", "dcba"]
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(["AI", "ai", "au"]) == ["AI", "ai", "au"]
+    assert candidate(["a", "b", "b", "c", "c", "a"]) == []
+    assert candidate(['aaaa', 'bbbb', 'dd', 'cc']) == ["cc", "dd", "aaaa", "bbbb"]
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def x_or_y(n, x, y):
+    """A simple program which should return the value of x if n is 
+    a prime number and should return the value of y otherwise.
+    Examples:
+    for x_or_y(7, 34, 12) == 34
+    for x_or_y(15, 8, 5) == 5
+    """
+</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def x_or_y(n, x, y):
+    if n == 1:
+        return y
+    for i in range(2, n):
+        if n % i == 0:
+            return y
+            break
+    else:
+        return x
+</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>from solution import x_or_y as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(7, 34, 12) == 34
+    assert candidate(15, 8, 5) == 5
+    assert candidate(3, 33, 5212) == 33
+    assert candidate(1259, 3, 52) == 3
+    assert candidate(7919, -1, 12) == -1
+    assert candidate(3609, 1245, 583) == 583
+    assert candidate(91, 56, 129) == 129
+    assert candidate(6, 34, 1234) == 1234
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1, 2, 0) == 0
+    assert candidate(2, 2, 0) == 2
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def double_the_difference(lst):
+    '''
+    Given a list of numbers, return the sum of squares of the numbers
+    in the list that are odd. Ignore numbers that are negative or not integers.
+    double_the_difference([1, 3, 2, 0]) == 1 + 9 + 0 + 0 = 10
+    double_the_difference([-1, -2, 0]) == 0
+    double_the_difference([9, -2]) == 81
+    double_the_difference([0]) == 0  
+    If the input list is empty, return 0.
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def x_or_y(n, x, y):
+    return sum([i**2 for i in lst if i &gt; 0 and i%2!=0 and "." not in str(i)])
+</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>from solution import double_the_difference as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([]) == 0 , "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([5, 4]) == 25 , "This prints if this assert fails 2 (good for debugging!)"
+    assert candidate([0.1, 0.2, 0.3]) == 0 , "This prints if this assert fails 3 (good for debugging!)"
+    assert candidate([-10, -20, -30]) == 0 , "This prints if this assert fails 4 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate([-1, -2, 8]) == 0, "This prints if this assert fails 5 (also good for debugging!)"
+    assert candidate([0.2, 3, 5]) == 34, "This prints if this assert fails 6 (also good for debugging!)"
+    lst = list(range(-99, 100, 2))
+    odd_sum = sum([i**2 for i in lst if i%2!=0 and i &gt; 0])
+    assert candidate(lst) == odd_sum , "This prints if this assert fails 7 (good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def compare(game,guess):
+    """I think we all remember that feeling when the result of some long-awaited
+    event is finally known. The feelings and thoughts you have at that moment are
+    definitely worth noting down and comparing.
+    Your task is to determine if a person correctly guessed the results of a number of matches.
+    You are given two arrays of scores and guesses of equal length, where each index shows a match. 
+    Return an array of the same length denoting how far off each guess was. If they have guessed correctly,
+    the value is 0, and if not, the value is the absolute difference between the guess and the score.
+    example:
+    compare([1,2,3,4,5,1],[1,2,3,4,2,-2]) -&gt; [0,0,0,0,3,3]
+    compare([0,5,0,0,0,4],[4,1,1,0,0,-2]) -&gt; [4,4,1,0,0,6]
+    """
+</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def compare(game,guess):
+    return [abs(x-y) for x,y in zip(game,guess)]
+</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>from solution import compare as candidate 
+def main():
+    # Check some simple cases
+    assert candidate([1,2,3,4,5,1],[1,2,3,4,2,-2])==[0,0,0,0,3,3], "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([0,0,0,0,0,0],[0,0,0,0,0,0])==[0,0,0,0,0,0], "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1,2,3],[-1,-2,-3])==[2,4,6], "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate([1,2,3,5],[-1,2,3,4])==[2,0,0,1], "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def Strongest_Extension(class_name, extensions):
+    """You will be given the name of a class (a string) and a list of extensions.
+    The extensions are to be used to load additional classes to the class. The
+    strength of the extension is as follows: Let CAP be the number of the uppercase
+    letters in the extension's name, and let SM be the number of lowercase letters 
+    in the extension's name, the strength is given by the fraction CAP - SM. 
+    You should find the strongest extension and return a string in this 
+    format: ClassName.StrongestExtensionName.
+    If there are two or more extensions with the same strength, you should
+    choose the one that comes first in the list.
+    For example, if you are given "Slices" as the class and a list of the
+    extensions: ['SErviNGSliCes', 'Cheese', 'StuFfed'] then you should
+    return 'Slices.SErviNGSliCes' since 'SErviNGSliCes' is the strongest extension 
+    (its strength is -1).
+    Example:
+    for Strongest_Extension('my_class', ['AA', 'Be', 'CC']) == 'my_class.AA'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def Strongest_Extension(class_name, extensions):
+    strong = extensions[0]
+    my_val = len([x for x in extensions[0] if x.isalpha() and x.isupper()]) - len([x for x in extensions[0] if x.isalpha() and x.islower()])
+    for s in extensions:
+        val = len([x for x in s if x.isalpha() and x.isupper()]) - len([x for x in s if x.isalpha() and x.islower()])
+        if val &gt; my_val:
+            strong = s
+            my_val = val
+    ans = class_name + "." + strong
+    return ans
+</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>from solution import Strongest_Extension as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('Watashi', ['tEN', 'niNE', 'eIGHt8OKe']) == 'Watashi.eIGHt8OKe'
+    assert candidate('Boku123', ['nani', 'NazeDa', 'YEs.WeCaNe', '32145tggg']) == 'Boku123.YEs.WeCaNe'
+    assert candidate('__YESIMHERE', ['t', 'eMptY', 'nothing', 'zeR00', 'NuLl__', '123NoooneB321']) == '__YESIMHERE.NuLl__'
+    assert candidate('K', ['Ta', 'TAR', 't234An', 'cosSo']) == 'K.TAR'
+    assert candidate('__HAHA', ['Tab', '123', '781345', '-_-']) == '__HAHA.123'
+    assert candidate('YameRore', ['HhAas', 'okIWILL123', 'WorkOut', 'Fails', '-_-']) == 'YameRore.okIWILL123'
+    assert candidate('finNNalLLly', ['Die', 'NowW', 'Wow', 'WoW']) == 'finNNalLLly.WoW'
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate('_', ['Bb', '91245']) == '_.Bb'
+    assert candidate('Sp', ['671235', 'Bb']) == 'Sp.671235'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def cycpattern_check(a , b):
+    """You are given 2 words. You need to return True if the second word or any of its rotations is a substring in the first word
+    cycpattern_check("abcd","abd") =&gt; False
+    cycpattern_check("hello","ell") =&gt; True
+    cycpattern_check("whassup","psus") =&gt; False
+    cycpattern_check("abab","baa") =&gt; True
+    cycpattern_check("efef","eeff") =&gt; False
+    cycpattern_check("himenss","simen") =&gt; True
+    """
+</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def cycpattern_check(a , b):
+    l = len(b)
+    pat = b + b
+    for i in range(len(a) - l + 1):
+        for j in range(l + 1):
+            if a[i:i+l] == pat[j:j+l]:
+                return True
+    return False
+</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>from solution import cycpattern_check as candidate 
+def main():
+    # Check some simple cases
+    #assert True, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    #assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert  candidate("xyzw","xyw") == False , "test #0"
+    assert  candidate("yello","ell") == True , "test #1"
+    assert  candidate("whattup","ptut") == False , "test #2"
+    assert  candidate("efef","fee") == True , "test #3"
+    assert  candidate("abab","aabb") == False , "test #4"
+    assert  candidate("winemtt","tinem") == True , "test #5"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def even_odd_count(num):
+    """Given an integer. return a tuple that has the number of even and odd digits respectively.
+     Example:
+        even_odd_count(-12) ==&gt; (1, 1)
+        even_odd_count(123) ==&gt; (1, 2)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def even_odd_count(num):
+    even_count = 0
+    odd_count = 0
+    for i in str(abs(num)):
+        if int(i)%2==0:
+            even_count +=1
+        else:
+            odd_count +=1
+    return (even_count, odd_count)
+</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>from solution import even_odd_count as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(7) == (0, 1)
+    assert candidate(-78) == (1, 1)
+    assert candidate(3452) == (2, 2)
+    assert candidate(346211) == (3, 3)
+    assert candidate(-345821) == (3, 3)
+    assert candidate(-2) == (1, 0)
+    assert candidate(-45347) == (2, 3)
+    assert candidate(0) == (1, 0)
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def int_to_mini_roman(number):
+    """
+    Given a positive integer, obtain its roman numeral equivalent as a string,
+    and return it in lowercase.
+    Restrictions: 1 &lt;= num &lt;= 1000
+    Examples:
+    &gt;&gt;&gt; int_to_mini_roman(19) == 'xix'
+    &gt;&gt;&gt; int_to_mini_roman(152) == 'clii'
+    &gt;&gt;&gt; int_to_mini_roman(426) == 'cdxxvi'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def int_to_mini_roman(number):
+    num = [1, 4, 5, 9, 10, 40, 50, 90,  
+           100, 400, 500, 900, 1000] 
+    sym = ["I", "IV", "V", "IX", "X", "XL",  
+           "L", "XC", "C", "CD", "D", "CM", "M"] 
+    i = 12
+    res = ''
+    while number: 
+        div = number // num[i] 
+        number %= num[i] 
+        while div: 
+            res += sym[i] 
+            div -= 1
+        i -= 1
+    return res.lower()
+</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>from solution import int_to_mini_roman as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(19) == 'xix'
+    assert candidate(152) == 'clii'
+    assert candidate(251) == 'ccli'
+    assert candidate(426) == 'cdxxvi'
+    assert candidate(500) == 'd'
+    assert candidate(1) == 'i'
+    assert candidate(4) == 'iv'
+    assert candidate(43) == 'xliii'
+    assert candidate(90) == 'xc'
+    assert candidate(94) == 'xciv'
+    assert candidate(532) == 'dxxxii'
+    assert candidate(900) == 'cm'
+    assert candidate(994) == 'cmxciv'
+    assert candidate(1000) == 'm'
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def right_angle_triangle(a, b, c):
+    '''
+    Given the lengths of the three sides of a triangle. Return True if the three
+    sides form a right-angled triangle, False otherwise.
+    A right-angled triangle is a triangle in which one angle is right angle or 
+    90 degree.
+    Example:
+    right_angle_triangle(3, 4, 5) == True
+    right_angle_triangle(1, 2, 3) == False
+    '''
+</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def int_to_mini_roman(number):
+    return a*a == b*b + c*c or b*b == a*a + c*c or c*c == a*a + b*b
+</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>from solution import right_angle_triangle as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(3, 4, 5) == True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(1, 2, 3) == False
+    assert candidate(10, 6, 8) == True
+    assert candidate(2, 2, 2) == False
+    assert candidate(7, 24, 25) == True
+    assert candidate(10, 5, 7) == False
+    assert candidate(5, 12, 13) == True
+    assert candidate(15, 8, 17) == True
+    assert candidate(48, 55, 73) == True
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate(1, 1, 1) == False, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(2, 2, 10) == False
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def find_max(words):
+    """Write a function that accepts a list of strings.
+    The list contains different words. Return the word with maximum number
+    of unique characters. If multiple strings have maximum number of unique
+    characters, return the one which comes first in lexicographical order.
+    find_max(["name", "of", "string"]) == "string"
+    find_max(["name", "enam", "game"]) == "enam"
+    find_max(["aaaaaaa", "bb" ,"cc"]) == ""aaaaaaa"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def find_max(words):
+    return sorted(words, key = lambda x: (-len(set(x)), x))[0]
+</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>from solution import find_max as candidate 
+def main():
+    # Check some simple cases
+    assert (candidate(["name", "of", "string"]) == "string"), "t1"
+    assert (candidate(["name", "enam", "game"]) == "enam"), 't2'
+    assert (candidate(["aaaaaaa", "bb", "cc"]) == "aaaaaaa"), 't3'
+    assert (candidate(["abc", "cba"]) == "abc"), 't4'
+    assert (candidate(["play", "this", "game", "of","footbott"]) == "footbott"), 't5'
+    assert (candidate(["we", "are", "gonna", "rock"]) == "gonna"), 't6'
+    assert (candidate(["we", "are", "a", "mad", "nation"]) == "nation"), 't7'
+    assert (candidate(["this", "is", "a", "prrk"]) == "this"), 't8'
+    # Check some edge cases that are easy to work out by hand.
+    assert (candidate(["b"]) == "b"), 't9'
+    assert (candidate(["play", "play", "play"]) == "play"), 't10'
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def eat(number, need, remaining):
+    """
+    You're a hungry rabbit, and you already have eaten a certain number of carrots,
+    but now you need to eat more carrots to complete the day's meals.
+    you should return an array of [ total number of eaten carrots after your meals,
+                                    the number of carrots left after your meals ]
+    if there are not enough remaining carrots, you will eat all remaining carrots, but will still be hungry.
+    Example:
+    * eat(5, 6, 10) -&gt; [11, 4]
+    * eat(4, 8, 9) -&gt; [12, 1]
+    * eat(1, 10, 10) -&gt; [11, 0]
+    * eat(2, 11, 5) -&gt; [7, 0]
+    Variables:
+    @number : integer
+        the number of carrots that you have eaten.
+    @need : integer
+        the number of carrots that you need to eat.
+    @remaining : integer
+        the number of remaining carrots thet exist in stock
+    Constrain:
+    * 0 &lt;= number &lt;= 1000
+    * 0 &lt;= need &lt;= 1000
+    * 0 &lt;= remaining &lt;= 1000
+    Have fun :)
+    """
+</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def eat(number, need, remaining):
+    if(need &lt;= remaining):
+        return [ number + need , remaining-need ]
+    else:
+        return [ number + remaining , 0]
+</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>from solution import eat as candidate 
+def main():
+    # Check some simple cases
+    assert True, "This prints if this assert fails 1 (good for debugging!)"
+    assert candidate(5, 6, 10) == [11, 4], "Error"
+    assert candidate(4, 8, 9) == [12, 1], "Error"
+    assert candidate(1, 10, 10) == [11, 0], "Error"
+    assert candidate(2, 11, 5) == [7, 0], "Error"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    assert candidate(4, 5, 7) == [9, 2], "Error"
+    assert candidate(4, 5, 1) == [5, 0], "Error"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def do_algebra(operator, operand):
+    """
+    Given two lists operator, and operand. The first list has basic algebra operations, and 
+    the second list is a list of integers. Use the two given lists to build the algebric 
+    expression and return the evaluation of this expression.
+    The basic algebra operations:
+    Addition ( + ) 
+    Subtraction ( - ) 
+    Multiplication ( * ) 
+    Floor division ( // ) 
+    Exponentiation ( ** ) 
+    Example:
+    operator['+', '*', '-']
+    array = [2, 3, 4, 5]
+    result = 2 + 3 * 4 - 5
+    =&gt; result = 9
+    Note:
+        The length of operator list is equal to the length of operand list minus one.
+        Operand is a list of of non-negative integers.
+        Operator list has at least one operator, and operand list has at least two operands.
+    """
+</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def do_algebra(operator, operand):
+    expression = str(operand[0])
+    for oprt, oprn in zip(operator, operand[1:]):
+        expression+= oprt + str(oprn)
+    return eval(expression)
+</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>from solution import do_algebra as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(['**', '*', '+'], [2, 3, 4, 5]) == 37
+    assert candidate(['+', '*', '-'], [2, 3, 4, 5]) == 9
+    assert candidate(['//', '*'], [7, 3, 4]) == 8, "This prints if this assert fails 1 (good for debugging!)"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def solve(s):
+    """You are given a string s.
+    if s[i] is a letter, reverse its case from lower to upper or vise versa, 
+    otherwise keep it as it is.
+    If the string contains no letters, reverse the string.
+    The function should return the resulted string.
+    Examples
+    solve("1234") = "4321"
+    solve("ab") = "AB"
+    solve("#a@C") = "#A@c"
+    """
+</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def solve(s):
+    flg = 0
+    idx = 0
+    new_str = list(s)
+    for i in s:
+        if i.isalpha():
+            new_str[idx] = i.swapcase()
+            flg = 1
+        idx += 1
+    s = ""
+    for i in new_str:
+        s += i
+    if flg == 0:
+        return s[len(s)::-1]
+    return s
+</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>from solution import solve as candidate 
+def main():
+    # Check some simple cases
+    assert candidate("AsDf") == "aSdF"
+    assert candidate("1234") == "4321"
+    assert candidate("ab") == "AB"
+    assert candidate("#a@C") == "#A@c"
+    assert candidate("#AsdfW^45") == "#aSDFw^45"
+    assert candidate("#6@2") == "2@6#"
+    # Check some edge cases that are easy to work out by hand.
+    assert candidate("#$a^D") == "#$A^d"
+    assert candidate("#ccc") == "#CCC"
+    # Don't remove this line:
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def string_to_md5(text):
+    """
+    Given a string 'text', return its md5 hash equivalent string.
+    If 'text' is an empty string, return None.
+    &gt;&gt;&gt; string_to_md5('Hello world') == '3e25960a79dbc69b674cd4ec67a72c62'
+    """
+</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def string_to_md5(text):
+    import hashlib
+    return hashlib.md5(text.encode('ascii')).hexdigest() if text else None
+</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>from solution import string_to_md5 as candidate 
+def main():
+    # Check some simple cases
+    assert candidate('Hello world') == '3e25960a79dbc69b674cd4ec67a72c62'
+    assert candidate('') == None
+    assert candidate('A B C') == '0ef78513b0cb8cef12743f5aeb35f888'
+    assert candidate('password') == '5f4dcc3b5aa765d61d8327deb882cf99'
+    # Check some edge cases that are easy to work out by hand.
+    assert True
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>solution.py</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+def generate_integers(a, b):
+    """
+    Given two positive integers a and b, return the even digits between a
+    and b, in ascending order.
+    For example:
+    generate_integers(2, 8) =&gt; [2, 4, 6, 8]
+    generate_integers(8, 2) =&gt; [2, 4, 6, 8]
+    generate_integers(10, 14) =&gt; []
+    """
+</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def generate_integers(a, b):
+    lower = max(2, min(a, b))
+    upper = min(8, max(a, b))
+    return [i for i in range(lower, upper+1) if i % 2 == 0]
+</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>from solution import generate_integers as candidate 
+def main():
+    # Check some simple cases
+    assert candidate(2, 10) == [2, 4, 6, 8], "Test 1"
+    assert candidate(10, 2) == [2, 4, 6, 8], "Test 2"
+    assert candidate(132, 2) == [2, 4, 6, 8], "Test 3"
+    assert candidate(17,89) == [], "Test 4"
+    # Check some edge cases that are easy to work out by hand.
+    assert True, "This prints if this assert fails 2 (also good for debugging!)"
+    return 1.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
